--- a/file_luu.xlsx
+++ b/file_luu.xlsx
@@ -549,636 +549,636 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 3 tầng đường Nguyễn Văn Thoại - Ngang 10m- Khu du lịch biển Đà Nẵng</t>
+          <t>Cho thuê nhà 3tâng x 80m2 MT đường Hải Phòng,Hải Châu,Đà Nẵng _14tr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 3 tầng đường Nguyễn Văn Thoại - Khu du lịch biển Đà Nẵng. - Diện tích sử dụng 450m2 - Ngang 10m. - Nhà 3 tầng thông suốt. - Giá 65triệu / tháng thương lượng chính chủ - Hợp đồng lâu dài. - Thanh toán l... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 3tâng x 80m2 MT đường Hải Phòng,Hải Châu,Đà Nẵng _14tr + Dt:80m2. (4 x 20 ) Đường 10,5m lề đường 5m tiện kinh doanh buôn bán + Công năng nhà: 1 P khách. Bếp. 4 phòng ngủ. 3wc. Nội thất cơ bản có máy điều... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diện tích: 450 m
+          <t>Diện tích: 80 m
 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Giá: 65 triệu / tháng</t>
+          <t>Giá: 14 triệu / tháng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Văn Thoại, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Hải Phòng, Phường Thạch Thang, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/25/thumbnails/016379718-2251-cho-thue-nha-mat-tien-quan-ngu-hanh-son-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016457540-3025-cho-thue-nha-mat-tien-quan-hai-chau-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-3-tang-duong-nguyen-van-thoai-ngang-10m-khu-du-lich-bien-da-nang-16379718.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-3tang-x-80m2-mt-duong-hai-phong-hai-chau-da-nang-14tr-16457540.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 3 tầng biệt thự Hoà Xuân. Dt 150m2 ngang 8m view sông mát mẻ ở tốt</t>
+          <t>Cho thuê nhà 3 tầng đường Nguyễn Văn Thoại - Ngang 10m- Khu du lịch biển Đà Nẵng</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>❌Cho thuê nhà 3 tầng Hoà Xuân -Dt 150m2 ngang 8m -3pn 3wc. Phòng shc, bếp, sân thượng trước sau... nhà đẹp sạch sẽ -View sông mát mẻ ở tốt, đi lại thuận tiện ---Giá cho thuê 1️⃣6️⃣ triệu/tháng ☎️☎️LH Nhân ........ &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 3 tầng đường Nguyễn Văn Thoại - Khu du lịch biển Đà Nẵng. - Diện tích sử dụng 450m2 - Ngang 10m. - Nhà 3 tầng thông suốt. - Giá 65triệu / tháng thương lượng chính chủ - Hợp đồng lâu dài. - Thanh toán l... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Diện tích: 150 m
+          <t>Diện tích: 450 m
 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giá: 16 triệu / tháng</t>
+          <t>Giá: 65 triệu / tháng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Đường Minh Mạng, Phường Hòa Quý, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Thoại, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/7/thumbnails/016017561-5314-cho-thue-nha-mat-tien-quan-ngu-hanh-son-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/25/thumbnails/016379718-2251-cho-thue-nha-mat-tien-quan-ngu-hanh-son-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-3-tang-biet-thu-hoa-xuan-dt-150m2-ngang-8m-view-song-mat-me-o-tot-16017561.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-3-tang-duong-nguyen-van-thoai-ngang-10m-khu-du-lich-bien-da-nang-16379718.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ĐẸP KHÔNG VẾT XƯỚC KS 8 TẦNG ĐƯỜNG AN NÔNG</t>
+          <t>🌟CHO THUÊ SIÊU PHẨM NHÀ 4 TẦNG MỚI ĐẸP - TRUNG TÂM HÀNH CHÍNH HOÀ CƯỜNG🌟</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>🔥CHO THUÊ KHÁCH SẠN 8 TẦNG ĐƯỜNG AN NÔNG, P. HOÀ HẢI, Q. NGŨ HÀNH SƠN, TP. ĐÀ NẴNG (h-2215) 1. Giá thuê: 125 Triệu - Diện tích: 135 m² (ngang: 6 m) - 8 tầng, 20 phòng ngủ, 21 wc Có 20 phòng gồm 15 căn hộ dạng studio... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>🌟CHO THUÊ SIÊU PHẨM NHÀ 4 TẦNG MỚI ĐẸP - TRUNG TÂM HÀNH CHÍNH HOÀ CƯỜNG🌟 📍Vị trí vàng – mặt tiền đường Huỳnh Tấn Phát, gần sân bay, trung tâm hành chính TP, khu công viên Tượng đài 2/9- Phức hợp thể thao Tuyên Sơn – ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diện tích: 135 m
+          <t>Diện tích: 380 m
 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Giá: 125 triệu / tháng</t>
+          <t>Giá: 31 triệu / tháng</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Đường An Nông, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Huỳnh Tấn Phát, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/7/thumbnails/016454149-1906-cho-thue-nha-hang-khach-san-quan-ngu-hanh-son-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/22/thumbnails/016356250-4037-cho-thue-nha-mat-tien-quan-hai-chau-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/dep-khong-vet-xuoc-ks-8-tang-duong-an-nong-16454149.html</t>
+          <t>https://alonhadat.com.vn/-cho-thue-sieu-pham-nha-4-tang-moi-dep-trung-tam-hanh-chinh-hoa-cuong--16356250.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cần cho thuê khách sạn 4* khu An Thượng</t>
+          <t>Villa for rent with view sea- view moutain</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cho thuê khách sạn khu vực An Thượng tiêu chuẩn 4* Diện tích : 450m2/sàn 14 tầng Công năng : 65phong khách sạn, có hồ bơi ,nhà hàng Giá cho thuê :650tr/tháng Cọc 6 thanh toán 12 tháng/lần Chu kì tăng giá mỗi n... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>4-STOREY VILLA FOR RENT – SEA &amp; MOUNTAIN VIEW – SON TRA 💥 Land area: 102m² 🌊 Stunning sea view – just steps to the beach, perfect for swimming &amp; daily walks 🚗 5.5m wide road – easy car access &amp; parking in front o... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Diện tích: 450 m
+          <t>Diện tích: 102 m
 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Giá: 650 triệu / tháng</t>
+          <t>Giá: 30 triệu / tháng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Đường An Thượng 11, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Phan Vinh, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016441470-1530-cho-thue-nha-hang-khach-san-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016461250-3533-cho-thue-biet-thu-nha-lien-ke-da-nang.jpg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/can-cho-thue-khach-san-4-khu-an-thuong-16441470.html</t>
+          <t>https://alonhadat.com.vn/villa-for-rent-with-view-sea-view-moutain-16461250.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHÍNH CHỦ CHO THUÊ NHÀ MT ĐƯỜNG HỒ TÙNG MẬU, QUẬN LIÊN CHỂU, ĐÀ NẴNG</t>
+          <t>🔥 CHO THUÊ TOÀ KS ĐẲNG CẤP 2 TẦNG ĐƯỜNG TRẦN DUY CHIẾN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chính chủ cho thuê nhà 304 Hồ Tùng Mậu, quận Liên Chiểu, Đà Nẵng Diện tích 94,4 m2 (Ngang 5,5 dài 18m). Hướng đông nam 🏡Nhà 3 lầu, có 4 phòng ngủ, phòng khách, phòng bếp, sân thượng 📍Vị trí nhà gần trường học, gần ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>🔥 CHO THUÊ BIỆT THỰ 2 TẦNG ĐƯỜNG TRẦN DUY CHIẾN, P. MÂN THÁI, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-10181) 1. Giá thuê: 78 Triệu - Diện tích: 299.9 m² (ngang: 18 m) - 2 tầng, 6 phòng ngủ, 6 wc 🌊 Hồ bơi thoáng mát xinh yêu ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Diện tích: 94 m
+          <t>Diện tích: 300 m
 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Giá: 25 triệu / tháng</t>
+          <t>Giá: 78 triệu / tháng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Đường Hồ Tùng Mậu, Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Đường Trần Duy Chiến, Phường Mân Thái, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/10/thumbnails/20250410_113714_16266853_0.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016460765-5640-cho-thue-nha-hang-khach-san-quan-son-tra-gia-re.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/chinh-chu-cho-thue-nha-mt-duong-ho-tung-mau-quan-lien-cheu-da-nang-16266853.html</t>
+          <t>https://alonhadat.com.vn/-cho-thue-toa-ks-dang-cap-2-tang-duong-tran-duy-chien-16460765.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🌟CHO THUÊ SIÊU PHẨM NHÀ 4 TẦNG MỚI ĐẸP - TRUNG TÂM HÀNH CHÍNH HOÀ CƯỜNG🌟</t>
+          <t>Cần cho thuê khách sạn 4* khu An Thượng</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>🌟CHO THUÊ SIÊU PHẨM NHÀ 4 TẦNG MỚI ĐẸP - TRUNG TÂM HÀNH CHÍNH HOÀ CƯỜNG🌟 📍Vị trí vàng – mặt tiền đường Huỳnh Tấn Phát, gần sân bay, trung tâm hành chính TP, khu công viên Tượng đài 2/9- Phức hợp thể thao Tuyên Sơn – ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê khách sạn khu vực An Thượng tiêu chuẩn 4* Diện tích : 450m2/sàn 14 tầng Công năng : 65phong khách sạn, có hồ bơi ,nhà hàng Giá cho thuê :650tr/tháng Cọc 6 thanh toán 12 tháng/lần Chu kì tăng giá mỗi n... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Diện tích: 380 m
+          <t>Diện tích: 450 m
 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Giá: 31 triệu / tháng</t>
+          <t>Giá: 650 triệu / tháng</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Đường Huỳnh Tấn Phát, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường An Thượng 11, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/22/thumbnails/016356250-4037-cho-thue-nha-mat-tien-quan-hai-chau-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016441470-1530-cho-thue-nha-hang-khach-san-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-sieu-pham-nha-4-tang-moi-dep-trung-tam-hanh-chinh-hoa-cuong--16356250.html</t>
+          <t>https://alonhadat.com.vn/can-cho-thue-khach-san-4-khu-an-thuong-16441470.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ Mường Thanh view biển, view TP tuyệt đẹp full nội thất cao cấp giả chỉ từ</t>
+          <t>Cho thuê lô đất 2 mặt tiền 438m2 view sông đường Đinh Gia Trinh sát cầu Cẩm lệ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ Mường Thanh. - Loại hình: 2PN. - View biển, view TP. - Nội Thất cao cấp. Cho thuê căn hộ Mường Thanh. - Loại hình: 2PN. - View biển, view TP. - Nội Thất cao cấp. Cho thuê căn hộ Mường Thanh. - ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>- Cho thuê lô đất 2 mặt tiền diện tích 438m2, đường 10m5 Đinh Gia TRinh và Hà Duy Phiên sát cầu Cẩm LỆ- - VỊ TRÍ sát 2 bệnh viện y học cổ truyền và trung tâm phục hồi chức năng - Mặt tiền đường 10m5 Đinh Gia Trinh rộn... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Diện tích: 70 m
+          <t>Diện tích: 438 m
 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Giá: 12 triệu / tháng</t>
+          <t>Giá: 22 triệu / tháng</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Đường Trần Bạch Đằng, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Đinh Gia Trinh, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/9/thumbnails/016257802-4725-cho-thue-can-ho-chung-cu-quan-ngu-hanh-son-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016460736-5434-cho-thue-dat-tho-cu-dat-o-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-can-ho-muong-thanh-view-bien-view-tp-tuyet-dep-full-noi-that-cao-cap-gia-chi-tu-16257802.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-lo-dat-2-mat-tien-438m2-view-song-duong-dinh-gia-trinh-sat-cau-cam-le-16460736.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHÍNH CHỦ CHO THUÊ NHÀ 3 MÊ ĐÚC FULL NỘI THẤT ĐƯỜNG PHÙNG CHÍ KIÊN,GẦN BIỂN HOÀ MINH</t>
+          <t>CHÍNH CHỦ CHO THUÊ NHÀ MT ĐƯỜNG HỒ TÙNG MẬU, QUẬN LIÊN CHỂU, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EM CẦN CHO THUÊ NHÀ 3 TẦNG ĐƯỜNG PHÙNG CHÍ KIÊN,HOÀ MINH GẦN BIỂN! ❤️ EM GỞI PHÍ GIỚI THIỆU CHO ACE GIỚI THIỆU NGƯỜI THUÊ ❤️ Diện tích 75m2 có 3PN, phòng thờ,sân phơi,phòng khách rộng rãi Full nội thất và thiết bị... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Chính chủ cho thuê nhà 304 Hồ Tùng Mậu, quận Liên Chiểu, Đà Nẵng Diện tích 94,4 m2 (Ngang 5,5 dài 18m). Hướng đông nam 🏡Nhà 3 lầu, có 4 phòng ngủ, phòng khách, phòng bếp, sân thượng 📍Vị trí nhà gần trường học, gần ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Diện tích: 75 m
+          <t>Diện tích: 94 m
 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Giá: 13 triệu / tháng</t>
+          <t>Giá: 25 triệu / tháng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Đường Phùng Chí Kiên, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Đường Hồ Tùng Mậu, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016441026-4114-chinh-chu-cho-thue-nha-3-me-duc-full-noi-that-duong-phung-chi-kien-gan-bien-hoa-minh.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/10/thumbnails/20250410_113714_16266853_0.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/chinh-chu-cho-thue-nha-3-me-duc-full-noi-that-duong-phung-chi-kien-gan-bien-hoa-minh-16441026.html</t>
+          <t>https://alonhadat.com.vn/chinh-chu-cho-thue-nha-mt-duong-ho-tung-mau-quan-lien-cheu-da-nang-16266853.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN 4 SAO ĐƯỜNG 2/9 VỊ TRÍ SIÊU VIP</t>
+          <t>Cho thuê 500m2, 1000m2, 2500m2, 3000m2, 4000m2, 5000m2, 6000m2,tại Liên Chiểu, Đà Nẵng.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN ĐƯỜNG ĐƯỜNG 2 THÁNG 9 , P. HÒA CƯỜNG NAM, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-11084) 1. Giá thuê: 20.000$/Tháng 2. Thông tin bất động sản - Diện tích: 372.4 m² (ngang: 30 m) - 17 tầng, 100 phòng cao cấp ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê 400m2, 500m2, 700m2, 1000m2, 2500m2, 2700m2, 3000m2, 4000m2, 5000m2, 6000m2, 10.000m2,kho nhà xưởng, trong khu công nghiệp tại khu công nghiệp Hòa Khánh, Liên Chiểu, Đà Nẵng. Diện tích : + Kho 400m2 + Kho 50... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Diện tích: 372 m
+          <t>Diện tích: 1.000 m
 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Giá: 500 triệu / tháng</t>
+          <t>Giá: 50 triệu / tháng</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Đường 2/9, Phường Hòa Cường Nam, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Âu Cơ, Phường Hòa Khánh Bắc, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/3/25/thumbnails/014182614-5811-cho-thue-kho-xuong-quan-lien-chieu.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-4-sao-duong-2-9-vi-tri-sieu-vip-16449525.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-500m2-1000m2-2500m2-3000m2-4000m2-5000m2-6000m2-tai-lien-chieu-da-nang--14182614.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Căn Hộ 2 Phòng Ngủ View Sông Hàn ở Sam Tower-TOÀN HUY HOÀNG</t>
+          <t>Cho thuê 8000m2 đất mặt tiền đường Ngô Quyền Sơn Trà Đà Nẵng.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Căn Hộ 2 Phòng Ngủ View Sông Hàn ở Sam Tower - A1378 💸Giá thuê: 24 triệu/tháng 🎯Vị trí: Như Nguyệt, Thuận Phước, Hải Châu 🌈Tầng 18 🛌 2 phòng ngủ 🛁 2 phòng tắm 🔰 70 m2 🌟Nội thất hiện đại và đầy đủ tiện nghi 🔰... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê 8000m2 đất mặt tiền đường Ngô Quyền Sơn Trà Đà Nẵng. Mô tả: 1, Lô 8000m2 Ngô Quyền và Lưu Thừa Vũ. 2, Lô 4 mặt tiền nguyễn trọng thứ- nguyễn quý cánh này 15.000m2. 3, Lô 4 mặt tiền Mai Đăng Chơn - Nam Kỳ K... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Diện tích: 68 m
+          <t>Diện tích: 8.000 m
 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Giá: 24 triệu / tháng</t>
+          <t>Giá: 120 triệu / tháng</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Đường Như Nguyệt, Phường Thuận Phước, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Ngô Quyền, Phường Mân Thái, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016437677-4947-can-ho-2-phong-ngu-view-song-han-o-sam-tower-toan-huy-hoang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016436284-4419-cho-thue-8000m2-dat-mat-tien-duong-ngo-quyen-son-tra-da-nang-.jpg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/can-ho-2-phong-ngu-view-song-han-o-sam-tower-toan-huy-hoang-16437677.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-8000m2-dat-mat-tien-duong-ngo-quyen-son-tra-da-nang--16436284.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cho thuê 8000m2 đất mặt tiền đường Ngô Quyền Sơn Trà Đà Nẵng.</t>
+          <t>Cho thuê MB kinh doanh diện tích khủng 315m2 ngang 12m gần Võ Văn Kiệt, Sơn Trà</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cho thuê 8000m2 đất mặt tiền đường Ngô Quyền Sơn Trà Đà Nẵng. Mô tả: 1, Lô 8000m2 Ngô Quyền và Lưu Thừa Vũ. 2, Lô 4 mặt tiền nguyễn trọng thứ- nguyễn quý cánh này 15.000m2. 3, Lô 4 mặt tiền Mai Đăng Chơn - Nam Kỳ K... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê mặt bằng kinh doanh diện tích khủng 315m2 ngay gần Võ Văn Kiệt, Phước Mỹ, Sơn Trà - Diện tích: 315m2 (12x25m), vị trí đẹp, mặt tiền rộng 12m - khu sầm uất - Hiện trạng: có sẵn nhà cấp 4 rất phù hợp làm quán ca... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Diện tích: 8.000 m
+          <t>Diện tích: 315 m
 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Giá: 120 triệu / tháng</t>
+          <t>Giá: 40 triệu / tháng</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Đường Ngô Quyền, Phường Mân Thái, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Võ Văn Kiệt, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016436284-4419-cho-thue-8000m2-dat-mat-tien-duong-ngo-quyen-son-tra-da-nang-.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016458049-0858-cho-thue-mat-bang-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-8000m2-dat-mat-tien-duong-ngo-quyen-son-tra-da-nang--16436284.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-mb-kinh-doanh-dien-tich-khung-315m2-ngang-12m-gan-vo-van-kiet-son-tra-16458049.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cho thuê 500m2, 1000m2, 2500m2, 3000m2, 4000m2, 5000m2, 6000m2,tại Liên Chiểu, Đà Nẵng.</t>
+          <t>CHO THUÊ KS 15 97PN ĐƯỜNG 2 THÁNG 9 - XÔ VIẾT NGHỆ TĨNH, CÓ HỒ BƠI, GIÁ 500TR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cho thuê 400m2, 500m2, 700m2, 1000m2, 2500m2, 2700m2, 3000m2, 4000m2, 5000m2, 6000m2, 10.000m2,kho nhà xưởng, trong khu công nghiệp tại khu công nghiệp Hòa Khánh, Liên Chiểu, Đà Nẵng. Diện tích : + Kho 400m2 + Kho 50... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 15 TẦNG ĐƯỜNG ĐƯỜNG 2 THÁNG 9 - XÔ VIẾT NGHỆ TĨNH - 2 THÁNG 9, P. HÒA CƯỜNG NAM, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-11084) 1. Giá thuê: 500TR đồng/Tháng 2. Thông tin bất động sản - Diện tích: 372.4 m² (ng... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Diện tích: 1.000 m
+          <t>Diện tích: 373 m
 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Giá: 50 triệu / tháng</t>
+          <t>Giá: 500 triệu / tháng</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Đường Âu Cơ, Phường Hòa Khánh Bắc, Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Đường 2/9, Phường Hòa Cường Nam, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/3/25/thumbnails/014182614-5811-cho-thue-kho-xuong-quan-lien-chieu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016457991-0405-cho-thue-nha-hang-khach-san-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-500m2-1000m2-2500m2-3000m2-4000m2-5000m2-6000m2-tai-lien-chieu-da-nang--14182614.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-ks-15-97pn-duong-2-thang-9-xo-viet-nghe-tinh-co-ho-boi-gia-500tr-16457991.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ĐIỆN BIÊN PHỦ 300M*2 TẦNG CHỈ 100TR CHO THUE NHANH</t>
+          <t>Thuê chung cư The Monarchy tòa B 2PN hiện đại -TOÀN HUY HOÀNG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ĐIỆN BIÊN PHỦ 14M NGANG 300M*2 TẦNG VIP CHO THUER Cho thuê nhà đường Điện Biên Phủ - quận Thanh Khê - Diện tích : 14m ngang , ( 300m*2 tầng ) - Giá thuê : 100tr - Trống suốt, thoáng ,nhận diện tốt,phù hợp với các mô... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Thuê chung cư The Monarchy tòa B. Căn hộ rộng 79m2, bao gồm phòng khách, phòng bếp, 2 phòng ngủ, 2 phòng vệ sinh, ban công. Trang bị đầy đủ nội thất mới, đẹp, hiện đại. Nằm ở tầng cao thoáng mát. The Monarchy là tổ hợp ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Diện tích: 600 m
+          <t>Diện tích: 79 m
 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Giá: 100 triệu / tháng</t>
+          <t>Giá: 18 triệu / tháng</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Đường Điện Biên Phủ, Phường Chính Gián, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường An Trung 3, Phường An Hải Tây, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016457866-5538-cho-thue-can-ho-chung-cu-quan-son-tra-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/dien-bien-phu-300m-2-tang-chi-100tr-cho-thue-nhanh-15664731.html</t>
+          <t>https://alonhadat.com.vn/thue-chung-cu-the-monarchy-toa-b-2pn-hien-dai-toan-huy-hoang-16457866.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NÚI THÀNH -18M NGANG 480M mặt bằng cửa kính đep CHO THÚE</t>
+          <t>CHÍNH CHỦ CHO THUÊ NHÀ 3 MÊ ĐÚC FULL NỘI THẤT ĐƯỜNG PHÙNG CHÍ KIÊN,GẦN BIỂN HOÀ MINH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cho thuê mt Núi Thành, TP. Đà Nẵng. - Mặt tiền: 18m. - Diện tích: 480m - Giá :120tr/tháng (gặp đàm phán) - Thời gian thuê: 05 năm. * Có sẵn mô hình kinh doanh ngày,rất đẹp CHUYÊN CHO THUÊ - CÒN NỮA Đăng k hết... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>EM CẦN CHO THUÊ NHÀ 3 TẦNG ĐƯỜNG PHÙNG CHÍ KIÊN,HOÀ MINH GẦN BIỂN! ❤️ EM GỞI PHÍ GIỚI THIỆU CHO ACE GIỚI THIỆU NGƯỜI THUÊ ❤️ Diện tích 75m2 có 3PN, phòng thờ,sân phơi,phòng khách rộng rãi Full nội thất và thiết bị... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Diện tích: 480 m
+          <t>Diện tích: 75 m
 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giá: 120 triệu / tháng</t>
+          <t>Giá: 13 triệu / tháng</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Đường Núi Thành, Phường Bình Thuận, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Phùng Chí Kiên, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/9/18/thumbnails/015099861-2638-nui-thanh-24m-ngang-1000m-dat-cho-thue.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016441026-4114-chinh-chu-cho-thue-nha-3-me-duc-full-noi-that-duong-phung-chi-kien-gan-bien-hoa-minh.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/nui-thanh-24m-ngang-1000m-dat-cho-thue-15099861.html</t>
+          <t>https://alonhadat.com.vn/chinh-chu-cho-thue-nha-3-me-duc-full-noi-that-duong-phung-chi-kien-gan-bien-hoa-minh-16441026.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHO THUÊ Mt đường LÝ THÁI TỔ QUÁ ĐẸP - RỘNG</t>
+          <t>Căn Hộ 2 Phòng Ngủ View Sông Hàn ở Sam Tower-TOÀN HUY HOÀNG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>❌LÝ THÁI TỔ ❌ ❤️Căn 1: Cho thuê nhà mt Thái Tổ, TP. Đà Nẵng. - Giá thuê: 85,5tr/tháng - Mặt tiền: 8,9m. - Diện tích tầng trệt: 279m2. - Tổng DTSD: 830m2 Ll CHUYÊN CHO THUÊ - CÒN NỮA Đăng k hết ( quý khách cli... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Căn Hộ 2 Phòng Ngủ View Sông Hàn ở Sam Tower - A1378 💸Giá thuê: 24 triệu/tháng 🎯Vị trí: Như Nguyệt, Thuận Phước, Hải Châu 🌈Tầng 18 🛌 2 phòng ngủ 🛁 2 phòng tắm 🔰 70 m2 🌟Nội thất hiện đại và đầy đủ tiện nghi 🔰... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Diện tích: 830 m
+          <t>Diện tích: 68 m
 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Giá: 85,5 triệu / tháng</t>
+          <t>Giá: 24 triệu / tháng</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Đường Lý Thái Tổ, Phường Chính Gián, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Như Nguyệt, Phường Thuận Phước, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016437677-4947-can-ho-2-phong-ngu-view-song-han-o-sam-tower-toan-huy-hoang.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-mt-duong-ly-thai-to-qua-dep-rong-15447870.html</t>
+          <t>https://alonhadat.com.vn/can-ho-2-phong-ngu-view-song-han-o-sam-tower-toan-huy-hoang-16437677.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SIÊU PHẨM MT VÕ NGUYÊN GIÁP 727 3mt VIP ĐẸP</t>
+          <t>CHO THUÊ KHÁCH SẠN VÕ VĂN KIỆT SẦM UẤT ĐẸP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>- Nhà hàng hai mặt tiền đường Võ Nguyên Giáp - Vị trí ngay trung tâm - Diện tích đất 727m -lô 3mt - ngang rộng - Giá cho thuê 165 triệu/tháng Hợp đồng dài hạn Phù hợp với các mô hình kinh doanh 📞Ll CHUYÊN CHO ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 12 TẦNG ĐƯỜNG VÕ VAN KIỆT, P. PHƯỚC MỸ, Q. SƠN TRÀ, TP. ĐÀ NẴNG 1. Giá thuê: 350 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 250 m² (ngang: 10 m) - 12 tầng, 50phòng ngủ, 52wc - Đường... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Diện tích: 727 m
+          <t>Diện tích: 250 m
 2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giá: 165 triệu / tháng</t>
+          <t>Giá: 350 triệu / tháng</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Đường Võ Nguyên Giáp, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Võ Văn Kiệt, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/5/thumbnails/015087526-3039-cho-thue-khach-san-vo-van-kiet-sam-uat-dep.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/sieu-pham-mt-vo-nguyen-giap-700m-2-tang-2mt-14467572.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-12-tang-duong-pham-van-dong-p-phuoc-my-q-son-tra-tp-da-nang-h-39-15087526.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHO THUÊ NGUYỄN VĂN THOẠI 700m SD LỚN CHO THUÊ</t>
+          <t>Cho thuê ks Võ Văn Kiệt Dt: 180m2 Công năng bao gồm 70p có hồ bơi Giá thuê: 400tr/ tháng (</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Siêu phẩm lô góc lớn ĐƯỜNG NGUYỄN VĂN THOẠI CHO THUÊ - SIÊU PHẨM cho thuê nhanh đường NGUYỄN VĂN THOẠI - VỊ TRÍ ĐẸP NHẤT NHÌ ĐƯỜNG NGUYỄN VĂN THOẠI - DIÊNN TÍCH :700M NGANG 10m - Giâ thuê :120tr - Hợp đồng dài hạ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê ks Võ Văn Kiệt ,Sơn Trà ,Đà Nẵng: Dt: 180m2 Công năng bao gồm 70p có hồ bơi Giá thuê: 400tr/ tháng ( bớt ít) Khu vực sầm uất ,đông đúc khách du lịch Văn minh văn hóa Phòng ốc sáng kinh doanh thuận tiện ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Diện tích: 700 m
+          <t>Diện tích: 180 m
 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Giá: 120 triệu / tháng</t>
+          <t>Giá: 400 triệu / tháng</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Văn Thoại, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Võ Văn Kiệt, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1188,73 +1188,73 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-dat-2mt-nguyen-van-thoai-lon-cho-thue-14915830.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-ks-vo-van-kiet-dt-180m2-cong-nang-bao-gom-70p-co-ho-boi-gia-thue-400tr-thang--15890392.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ĐIỆN BIÊN PHỦ 12M NGANG CHO THUÊ (600M SD SIÊU ĐẸP)</t>
+          <t>CHO THUÊ MẶT BẰNG 2 TẦNG MT AN THƯỢNG PHỐ ĐI BỘ 1-2-3-4 Diện tích : 90m ngang 5m Dtsd: 14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>✅ CHO THUÊ NHÀ 4 TẦNG ĐƯỜNG ĐIỆN BIÊN PHỦ - DIỆN TÍCH ĐẤT : 150M2 - NGANG : 13M - NHÀ 4 TẦNG THÔNG SUỐT - DTSD : 600M2, CÓ THÁNG MÁY THÔNG TẦNG, NHÀ MỚI - VỊ TRÍ ĐẸP PHÙ HỢP MỞ SHOP THỜI TRANG, SHOWROOM, SIÊU THỊ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ MẶT BẰNG 2 TẦNG MT AN THƯỢNG PHỐ ĐI BỘ 1-2-3-4 Diện tích : 90m ngang 5m Dtsd: 145m2 2 tầng trống suốt Phù hợp cf,tiệm bánh,nhà hàng Giá thuê: 38 triệu/ tháng Nhanh tay alo Tư vấn Chuyên cho thuê mua... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Diện tích: 600 m
+          <t>Diện tích: 90 m
 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Giá: 90 triệu / tháng</t>
+          <t>Giá: 38 triệu / tháng</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Đường Điện Biên Phủ, Phường Chính Gián, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường An Thượng 3, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/5/thumbnails/016124066-5114-cho-thue-mat-bang-2-tang-mt-an-thuong-pho-di-bo-1-2-3-4-dien-tich-90m-ngang-5m-dtsd-14.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/dien-bien-phu-12m-ngang-cho-thue-600m-sd-sieu-dep--14740096.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-mat-bang-quan-nhau-tran-bach-dang-dien-tich-310m2-co-san-toan-bo-he-bep-16124066.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MT NGUYỄN TRI PHƯƠNG - 355,4 M² - 3 PN -135 triệu</t>
+          <t>BẠCH ĐẰNG 550M*2 tầng đẹp - 3mt VIP CHO THUÊ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 135 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 355.4 m² (ngang: 20 m) - 3 tầng, 3 phòng ngủ, 3 wc - Đường rộng: 30 m, lề: 5 m Mô tả: Trung tâm sầm uất GỌI NGỌC NGAY ĐỂ ĐƯỢC TƯ VẤN CHI TI... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>✅ CHO THUÊ MẶT BẰNG 3 MẶT TIỀN ĐƯỜNG BẠCH ĐẰNG ( ngang 12m ) 📍 Vị trí trung tâm gần công viên Sun World &amp; khu Nhà hàng tiệc cưới 2/9 - DIỆN TÍCH : 550m2 x 2 Tầng nhà tiền chế - PHÙ HỢP KINH DOANH BAR, PUB, NHÀ HÀNG….... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Diện tích: 355 m
+          <t>Diện tích: 540 m
 2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Giá: 135 triệu / tháng</t>
+          <t>Giá: 120 triệu / tháng</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Tri Phương, Phường Chính Gián, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Bạch Đằng, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1264,252 +1264,252 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mt-nguyen-tri-phuong-le-duy-dinh-355-4-m-3-pn-135-trieu-16404156.html</t>
+          <t>https://alonhadat.com.vn/bach-dang-550m-2-tang-dep-3mt-vip-cho-thue-16461392.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN AN THƯỢNG 29 - 70 M² - 6 PN - GIÁ 22 TRIỆU</t>
+          <t>🌻🎀Cập nhật giỏ hàng nhà thuê khu Nam Việt Á , Ngũ Hành Sơn🎀🌻</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 22 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 70 m² (ngang: 5 m) - 4 tầng, 6 phòng ngủ, 6 wc - Đường rộng: 5.5 m Mô tả: nhà xây kiên cố GỌI NGỌC NGAY ĐỂ ĐƯỢC TƯ VẤN CHI TIẾT Ghi chú:192... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>🌻🎀Cập nhật giỏ hàng nhà thuê khu Nam Việt Á , Ngũ Hành Sơn🎀🌻 1. Nhà 3 tầng đường Đa Phước thiết kế hiện đại và đẹp + 5 phòng ngủ, 4 phòng vệ sinh , full nội thất + Giá 20tr/ tháng 2. Nhà 4 tầng đường Nghiê... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Diện tích: 70 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Giá: 22 triệu / tháng</t>
+          <t>Giá: 25 triệu / tháng</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Đường An Thượng 30, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nghiêm Xuân Yêm, Phường Khuê Mỹ, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/4/thumbnails/016228432-1339-cho-thue-nha-mat-tien-quan-ngu-hanh-son.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-an-thuong-29-70-m-6-pn-gia-22-trieu-16408190.html</t>
+          <t>https://alonhadat.com.vn/-cap-nhat-gio-hang-nha-thue-khu-nam-viet-a-ngu-hanh-son--16228432.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG HÀM NGHI - 85 M² - 1 PN - GIÁ 25 TRIỆU</t>
+          <t>CHO THUÊ NHÀ NGUYÊN CĂN 3 TẦNG – KHU NAM VIỆT Á – FULL NỘI THẤT gần sông hàn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 25 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 85 m² (ngang: 4.5 m) - 1 tầng, 1 phòng ngủ, 1 wc - Đường rộng: 15 m, lề: 4 m Mô tả: có nhà tiền chế GỌI NGỌC NGAY ĐỂ ĐƯỢC TƯ VẤN CHI TIẾT G... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ NHÀ NGUYÊN CĂN 3 TẦNG – KHU NAM VIỆT Á – FULL NỘI THẤT gần sông hàn Vị trí, khu vực thuận tiện di chuyển, yên tĩnh, an ninh tốt. Diện tích &amp; thiết kế hiện đại + Diện tích: 100m², không gian rộng rãi, san ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Diện tích: 85 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Giá: 25 triệu / tháng</t>
+          <t>Giá: 20 triệu / tháng</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Đường Hàm Nghi, Phường Thạc Gián, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Bùi Tá Hán, Phường Khuê Mỹ, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/26/thumbnails/016153862-5739-cho-thue-nha-nguyen-can-3-tang-khu-nam-viet-a-full-noi-that-gan-song-han.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-ham-nghi-85-m-1-pn-gia-25-trieu-16408288.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-3-tang-khu-nam-viet-a-full-noi-that-gan-song-han-16153862.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG ĐIỆN BIÊN PHỦ - 72 M² - 2 PN - GIÁ 30 TRIỆU</t>
+          <t>Cho thuê nhà 3 tầng biệt thự Hoà Xuân. Dt 150m2 ngang 8m view sông mát mẻ ở tốt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 30 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 72 m² (ngang: 4.5 m) - 3 tầng, 2 phòng ngủ, 3 wc - Đường rộng: 30 m, lề: 5 m Mô tả: Cho thuê nhà nguyên căn làm Văn Phòng hoặc ở - Diện tích... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>❌Cho thuê nhà 3 tầng Hoà Xuân -Dt 150m2 ngang 8m -3pn 3wc. Phòng shc, bếp, sân thượng trước sau... nhà đẹp sạch sẽ -View sông mát mẻ ở tốt, đi lại thuận tiện ---Giá cho thuê 1️⃣6️⃣ triệu/tháng ☎️☎️LH Nhân ........ &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Diện tích: 72 m
+          <t>Diện tích: 150 m
 2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Giá: 30 triệu / tháng</t>
+          <t>Giá: 16 triệu / tháng</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Đường Điện Biên Phủ, Phường Thanh Khê Đông, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Minh Mạng, Phường Hòa Quý, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/29/thumbnails/016408340-2245-cho-thue-nha-mat-tien-quan-thanh-khe.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/7/thumbnails/016017561-5314-cho-thue-nha-mat-tien-quan-ngu-hanh-son-gia-re.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-dien-bien-phu-72-m-2-pn-gia-30-trieu-16408340.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-3-tang-biet-thu-hoa-xuan-dt-150m2-ngang-8m-view-song-mat-me-o-tot-16017561.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🌊 CHO THUÊ TÒA BOUTIQUE GẦN BIỂN SƠN TRÀ - 587 M² - 20 PN - GIÁ 170 TRIỆU</t>
+          <t>Cho thuê đất 2 mặt tiền 204m2 đường Nại Nam 6 , Hải Châu_30tr/tháng</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2 MẶT TIỀN ĐƯỜNG LỚN! 💰 Giá thuê:170 triệu đồng/tháng Thông tin chi tiết: * Diện tích đất: 587m² (ngang 17m) * Kết cấu: 6 tầng, gồm 20 phòng ngủ, 21 WC * Hạ tầng: Đường chính 7.5m, vỉa hè rộng 4.5m – thoáng đãng, t... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê đất 2 mặt tiền 204m2 đường Nại Nam 6 , Hải Châu_30tr/tháng - Vị trí gần Ngay Siêu Thị Lotte, nại nam 6 giao vs doãn khuê - Diện tích :204m2 ( 8,5 x 25 ) - Phù hợp mở cà phê , nhà hàng , gym - Giá thuê ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Diện tích: 587 m
+          <t>Diện tích: 204 m
 2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Giá: 170 triệu / tháng</t>
+          <t>Giá: 30 triệu / tháng</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Đường Hoàng Bích Sơn, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Nại Nam 6, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016447028-1233-cho-thue-nha-hang-khach-san-quan-son-tra-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016461366-4537-cho-thue-dat-tho-cu-dat-o-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-toa-boutique-gan-bien-son-tra-587-m-20-pn-gia-170-trieu-16447028.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-dat-2-mat-tien-204m2-duong-nai-nam-6-hai-chau-30tr-thang-16461366.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🌟 CHO THUÊ KHÁCH SẠN BOUTIQUE AN ĐỒN 5 – HỒ BƠI RIÊNG – KIẾN TRÚC SANG TRỌNG</t>
+          <t>MẶT BẰNG GẦN PHẠM VĂN ĐỒNG CHO THUÊ 400M VIP - RẺ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>💸 Giá thuê: 270 triệu đồng/tháng 📍 Tọa lạc tại vị trí yên tĩnh, riêng tư nhưng kết nối nhanh chóng đến các trục đường chính và điểm du lịch. Không gian lý tưởng để vận hành mô hình lưu trú cao cấp, biệt thự nghỉ dưỡng... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ MẶT BẰNG GẦN PHẠM VĂN ĐỒNG KHU HÀN QUỐC . DU LỊCH - DIỆN TÍCH : 10M X 20M . 200 M2 . 2 TẦNG . DTSD 400 M2 . THÔNG SUỐT - PHÙ HỢP KD TẤT CẢ , PUD , BAR , NHÀ HÀNG .... - GIÁ 50 TRIỆU / THÁNG L.LH CHUYÊ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Diện tích: 520 m
+          <t>Diện tích: 400 m
 2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Giá: 270 triệu / tháng</t>
+          <t>Giá: 50 triệu / tháng</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Đường An Đồn 5, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Phạm Văn Đồng, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016447099-2439--cho-thue-khach-san-boutique-an-don-5-ho-boi-rieng-kien-truc-sang-trong.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-khach-san-boutique-an-don-5-ho-boi-rieng-kien-truc-sang-trong-16447099.html</t>
+          <t>https://alonhadat.com.vn/mat-bang-gan-pham-van-dong-cho-thue-400m-vip-re-16461282.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG 281 TRƯỜNG CHINH - 98 M² - 5 PN - GIÁ 12 TRIỆU</t>
+          <t>Cho thuê nhà MT Nguyễn Tất Thành</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 12 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 98 m² (ngang: 7 m) - 3 tầng, 5 phòng ngủ, 2 wc Mô tả: Cho thuê nhà nguyên căn để kinh doanh và ở diện tích nhà: chiều rộng mặt tiền nhà: 7m... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cần cho thuê căn mặt tiền Nguyễn Tất Thành Nhà mới 100% hoàn thiện Phù hợp làm văn phòng công ty Nhà gồm 4 tầng DT đất :120m2 DT sử dụng 300m2 Xung quanh toàn văn phòng công ty Đối diện cây xăng Gia Nguyễn Tâm ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Diện tích: 98 m
+          <t>Diện tích: 120 m
 2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Giá: 12 triệu / tháng</t>
+          <t>Giá: 8 triệu / tháng</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Đường Trường Chinh, Phường An Khê, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Nguyễn Tất Thành, Phường Hòa Hiệp Nam, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016441957-5159-cho-thue-nha-nguyen-can-mat-tien-duong-281-truong-chinh-98-m-5-pn-gia-12-trieu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-281-truong-chinh-98-m-5-pn-gia-12-trieu-16441957.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-mt-nguyen-tat-thanh-15851420.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG HUỲNH VĂN GẤM - 125 M² - 2 PN - GIÁ 15 TRIỆU</t>
+          <t>Cho thuê biệt thự góc 2MT đường 15m giao đường 10,5m</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 15 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 125 m² (ngang: 5 m) - 2 tầng, 2 phòng ngủ, 2 wc - Đường rộng: 7.5 m Mô tả: Diện tích 125m2 x2 tầng ngay mt đường 7,5m, trước mặt nhà là công... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Tổng diện tích đất 300m2 .Diện tích sàn 650m2 Gồm 4 phòng ngủ, 1 phòng karaoke,1 phòng sinh hoạt chung,2 phóng tắm,7wc,1 bếp,1 phòng khách, phòng ăn , bể bơi + sân vườn ,Sân thượng ngoài trời chuyên nướng bbq, Gara để ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Diện tích: 125 m
+          <t>Diện tích: 650 m
 2</t>
         </is>
       </c>
@@ -1520,843 +1520,843 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Đường Huỳnh Văn Gấm, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Tất Thành, Phường Hòa Hiệp Nam, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016435363-1449-cho-thue-nha-mat-tien-quan-cam-le.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/5/9/thumbnails/014434012-3449-cho-thue-biet-thu-nha-lien-ke-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-huynh-van-gam-125-m-2-pn-gia-15-trieu-16435363.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-goc-2mt-duong-15m-giao-duong-10-5m-14434012.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN AN THƯỢNG 20 - 90 M² - 4 PN - GIÁ 25 TRIỆU</t>
+          <t>🇻🇳NHÀ 2 TẦNG MẶT TIỀN ĐƯỜNG NGUYỄN PHƯỚC NGUYÊN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 25 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 90 m² (ngang: 5 m) - 3 tầng, 4 phòng ngủ, 4 wc - Đường rộng: 5.5 m, lề: 3 m Mô tả: ng 1: Gara xe oto, Phòng khách, Bếp và 1 phòng nhỏ sau bếp... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 2 tầng mặt tiền đường Nguyễn Phước Nguyên, Thanh Khê, Đà Nẵng. • Diện tích: 77m2. • Phòng khách rộng (có cửa kính), 03 phòng ngủ, 02 WC. • Giá thuê: 10 triệu/tháng. ---------- CHUYÊN: Cho thuê nhà, mặt ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Diện tích: 90 m
+          <t>Diện tích: 77 m
 2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Giá: 25 triệu / tháng</t>
+          <t>Giá: 10 triệu / tháng</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Đường An Thượng 20, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Phước Nguyên, Phường An Khê, Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016435437-2241-cho-thue-nha-mat-tien-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/26/thumbnails/016388180-5348-cho-thue-nha-mat-tien-quan-thanh-khe.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-an-thuong-20-90-m-4-pn-gia-25-trieu-16435437.html</t>
+          <t>https://alonhadat.com.vn/-nha-2-tang-mat-tien-duong-nguyen-phuoc-nguyen-16388180.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG AN THƯỢNG 20 - 83,25 M² - 7 PN - GIÁ 20 TRIỆU</t>
+          <t>🇻🇳NHÀ 2 TẦNG KIỆT OTO NGUYỄN CHÁNH: 200M2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 20 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 83.25 m² (ngang: 4.5 m) - 3 tầng, 7 phòng ngủ, 3 wc - Đường rộng: 5.5 m, lề: 3 m Mô tả: - Không nội thất - Tầng 3 3 phòng - Tầng 2 3 p - Tần... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 2 tầng kiệt Nguyễn Chánh, Liên Chiểu. • Diện tích: 200m2, kiệt oto 6m. • Nhà rộng rãi, 03 phòng ngủ, 01 WC. • Giá thuê: 6,8 triệu/tháng. -------------------- CHUYÊN: Cho thuê nhà, mặt bằng, kho xưởng...... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Diện tích: 83 m
+          <t>Diện tích: 200 m
 2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Giá: 20 triệu / tháng</t>
+          <t>Giá: 6,8 triệu / tháng</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Đường An Thượng 20, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Chánh, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016434545-5853-cho-thue-nha-mat-tien-quan-ngu-hanh-son-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/26/thumbnails/016388161-5126-cho-thue-nha-mat-tien-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-an-thuong-20-83-25-m-7-pn-gia-20-trieu-16434545.html</t>
+          <t>https://alonhadat.com.vn/-nha-2-tang-kiet-oto-nguyen-chanh-200m2-16388161.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG THÁI THỊ BÔI - 180 M² - 1 PN - GIÁ 20 TRIỆU</t>
+          <t>🇻🇳NHÀ GÁC LỮNG ĐƯỜNG NHƠN HOÀ 19 KHU PHƯỚC LÝ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 20 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 180 m² (ngang: 9 m) - 1 tầng, 1 phòng ngủ, 2 wc - Đường rộng: 7.5 m, lề: 3 m Mô tả: - khu vực kinh doanh sầm uất, gần chợ, thích hợp kinh doa... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà gác lửng đường 5m5 Nhơn Hoà 19, khu Phước Lý, sau bến xe. • Diện tích: 100m2, đường 5m5 lề 3m. • Nhà gồm: 02 phòng ngủ, 02 WC, phòng khách rộng. • Giá thuê: 6 triệu/tháng. --------------- CHUYÊN: Cho th... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Diện tích: 180 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Giá: 20 triệu / tháng</t>
+          <t>Giá: 6 triệu / tháng</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Đường Thái Thị Bôi, Phường Chính Gián, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Nhơn Hòa 19, Phường Hòa An, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016434961-3517-cho-thue-nha-mat-tien-quan-thanh-khe.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/14/thumbnails/016294667-3909-cho-thue-nha-mat-tien-quan-cam-le-gia-re.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-thai-thi-boi-180-m-1-pn-gia-20-trieu-16434961.html</t>
+          <t>https://alonhadat.com.vn/-nha-gac-lung-duong-nhon-hoa-19-khu-phuoc-ly-16294667.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG LÊ ĐÌNH LÝ - 76,5 M² - 9 PN - GIÁ 45 TRIỆU</t>
+          <t>🇻🇳NHÀ 2 TẦNG MẶT TIỀN YẾN THẾ, BẮC SƠN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 76.5 m² (ngang: 4.5 m) - 7 tầng, 9 phòng ngủ, 10 wc - Đường rộng: 15 m, lề: 5 m Mô tả: - Có thang máy - PCCC đầy đủ - Phù hợp làm nha khoa,... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 2 tầng mặt tiền Yên Thế, Bắc Sơn, gần bến xe. • Diện tích: 70m2. • Nhà 2 tầng trống suốt, tiện kinh doanh. • Giá thuê: 9 triệu/tháng. ------------------ CHUYÊN: Cho thuê nhà, mặt bằng, kho xưởng... khu ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Diện tích: 76 m
+          <t>Diện tích: 70 m
 2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Giá: 45 triệu / tháng</t>
+          <t>Giá: 9 triệu / tháng</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Đường Lê Đình Lý, Phường Vĩnh Trung, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Yên Thế, Phường Hòa An, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/2/thumbnails/016212127-0545-cho-thue-nha-mat-tien-quan-cam-le-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-le-dinh-ly-76-5-m-9-pn-gia-45-trieu-16427058.html</t>
+          <t>https://alonhadat.com.vn/-nha-2-tang-mat-tien-yen-the-bac-son-16212127.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHO THUÊ BIỆT THỰ ĐƯỜNG NGUYỄN SƠN - HÓA SƠN 1 - 160 M² - 5 PN - GIÁ 55 TRIỆU</t>
+          <t>🇻🇳NHÀ GÁC LỬNG KIỆT TRẦN ĐÌNH TRI: MỚI, ĐẸP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ NHÀ 3 TẦNG – 5PN, NGAY TRUNG TÂM, GIÁ CHỈ 55 TRIỆU/THÁNG! 🔥** 📍 **Vị trí đắc địa**: Gần Lotte Mart, các trường đại học, khu dân cư sầm uất. 🏡 **Nhà mới, thiết kế đẹp**: ✔ **Diện tích**: 160m² (Nga... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà gác lững kiệt Trần Đình Tri, Hoà Minh. - Nhà mới: 03 phòng ngủ, 02 WC, sân xe... - Nội thất: Bàn ghế, điều hoà, giường tủ. - Giá thuê: 7 triệu/tháng. ------------ CHUYÊN: Cho thuê nhà, mặt bằng, kho xưở... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Diện tích: 160 m
+          <t>Diện tích: 80 m
 2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Giá: 55 triệu / tháng</t>
+          <t>Giá: 7 triệu / tháng</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Sơn, Phường Hòa Cường Nam, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Trần Đình Tri, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016199626-5909-cho-thue-biet-thu-nha-lien-ke-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/27/thumbnails/016168848-3032--nha-gac-lung-kiet-tran-dinh-tri-moi-dep.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-biet-thu-duong-nguyen-son-hoa-son-1-160-m-5-pn-gia-55-trieu-16199626.html</t>
+          <t>https://alonhadat.com.vn/-nha-gac-lung-kiet-tran-dinh-tri-moi-dep-16168848.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG HỒ NGHINH - 125 M² - 9 PN - GIÁ 35 TRIỆU</t>
+          <t>🇻🇳SHOPHOUSE 3 TẦNG ĐƯỜNG MÊ LINH FULL NỘI THẤT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**CHO THUÊ NHÀ 1 TẦNG – 9 PHÒNG, MẶT BẰNG RỘNG** 🏡 Diện tích: 125m² (Ngang 5m) 🏠 Kết cấu: 1 tầng, 9 phòng ngủ, 9 WC 🚗 Đường 15m, vỉa hè 7m** – Thuận tiện kinh doanh 📍 Thích hợp làm phòng trọ, kinh doanh... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê shophoue mặt tiền đường Mê Linh (đường số 5) gần KCN Hoà Khánh. - Diện tích: 100m2, 3 tầng, đường 30m. - Tầng 1 trống suốt, tầng 2, 3: 2 phòng ngủ. - Đầy đủ nội thất cao cấp, có thang máy. - Có thể thuê nguy... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Diện tích: 125 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Giá: 35 triệu / tháng</t>
+          <t>Giá: 12 triệu / tháng</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Đường Hồ Nghinh, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường số 5, Phường Hòa Hiệp Nam, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016199808-1055-cho-thue-nha-mat-tien-quan-son-tra-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/1/15/thumbnails/015806449-0819-cho-thue-nha-mat-tien-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-ho-nghinh-125-m-9-pn-gia-35-trieu-16199808.html</t>
+          <t>https://alonhadat.com.vn/-shophouse-3-tang-duong-me-linh-full-noi-that-15806449.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN ĐƯỜNG ĐỐNG ĐA - 127 M² - 3 PN - GIÁ 45 TRIỆU</t>
+          <t>🇻🇳NHÀ 3 TẦNG MẶT TIỀN KINH DƯƠNG VƯƠNG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 127 m² (ngang: 8.5 m) - 3 tầng, 3 phòng ngủ, 3 wc - Đường rộng: 10 m Mô tả: - Mặt tiền ngang 8,5m x 15m x 3 tầng. Diện tích sử dụng 300m2. ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 3 tầng mặt tiền Kinh Dương Vương, Hoà Minh. • Diện tích: 100m2, đường 15m5. • Phòng khách rộng, 03 phòng ngủ, 02 WC. • Giá thuê: 10 triệu/tháng. --------- CHUYÊN: Cho thuê nhà, mặt bằng, kho xưởng... kh... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Diện tích: 127 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Giá: 45 triệu / tháng</t>
+          <t>Giá: 10 triệu / tháng</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Đường Đống Đa, Phường Thạch Thang, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Kinh Dương Vương, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/2/thumbnails/016208603-1426-cho-thue-nha-mat-tien-quan-lien-chieu-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-duong-dong-da-127-m-3-pn-gia-45-trieu-16199902.html</t>
+          <t>https://alonhadat.com.vn/-nha-3-tang-mat-tien-kinh-duong-vuong-16208603.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ VILLA CAO CẤP – 750M², ĐƯỜNG 30M, FULL NỘI THẤT CAO CẤP - 4500 ĐÔ/ THÁNG</t>
+          <t>🇻🇳NHÀ 3 TẦNG MỚI XÂY ĐƯỜNG NGỌC HỒI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>🏡 Diện tích rộng rãi: 750m² (Ngang 18m) – Không gian biệt lập, sân vườn thoáng đãng, phù hợp nghỉ dưỡng. 🏠 Kết cấu sang trọng: 2 tầng, 3 phòng ngủ, 3 WC – Thiết kế hiện đại, tối ưu không gian sống. 🚗 Mặt tiền đư... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 3 tầng mới xây đường Ngọc Hồi, P. Thanh Khê Tây. • Diện tích: 75m2, đường 5m5. • Nhà mới, 03 phòng ngủ, 03 WC • Nội thất: 01 bếp, 02 quạt, 01 lọc nước, 01 nóng lạnh, 01 tivi. • Giá thuê: 13 triệu/tháng. ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Diện tích: 750 m
+          <t>Diện tích: 75 m
 2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Giá: 115 triệu / tháng</t>
+          <t>Giá: 13 triệu / tháng</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Đường Trường Sa, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Ngọc Hồi, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016205564-1310-cho-thue-biet-thu-nha-lien-ke-quan-ngu-hanh-son.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016202868-2441-cho-thue-nha-mat-tien-quan-lien-chieu.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-villa-cao-cap-750m-duong-30m-full-noi-that-cao-cap-4500-do-thang-16205564.html</t>
+          <t>https://alonhadat.com.vn/-nha-3-tang-moi-xay-duong-ngoc-hoi-16202868.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ VILLA VIEW BIỂN – 1000M² - 11 000 USD_ SANG TRỌNG &amp; ĐẲNG CẤP 🔥</t>
+          <t>🇻🇳NHÀ CẤP 4 K87 HOÀNG VĂN THÁI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>🏡 Diện tích rộng: 1000m² (Ngang 25m) – Không gian biệt lập, thoáng đãng, thích hợp nghỉ dưỡng. 🏠 Kết cấu: 2 tầng, 6 phòng ngủ, 6 WC – Thiết kế hiện đại, tối ưu không gian sống. 🌊 View biển cực xịn – Đón gió biển... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà K87 Hoàng Văn Thái, Hoà Khánh Nam, Liên Chiểu. • Nhà gồm: 02 phòng ngủ, 01 WC, có sân rộng. • Có điều hoà, nóng lạnh, tủ lạnh. • Giá rẻ: 4 triệu/tháng. -------------- CHUYÊN: Cho thuê nhà, mặt bằng, kho... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diện tích: 1.000 m
+          <t>Diện tích: 80 m
 2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Giá: Thỏa thuận</t>
+          <t>Giá: 4 triệu / tháng</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Đường Trường Sa, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Hoàng Văn Thái, Phường Hòa Khánh Nam, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016205589-1623-cho-thue-biet-thu-nha-lien-ke-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016200441-5603-cho-thue-nha-trong-hem-quan-lien-chieu-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-villa-view-bien-1000m-11-000-usd-sang-trong-dang-cap--16205589.html</t>
+          <t>https://alonhadat.com.vn/-nha-cap-4-k87-hoang-van-thai-16200441.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ BIỆT THỰ 2 TẦNG – VIEW SÂN VƯỜN, HỒ BƠI - 5000 USD 🔥</t>
+          <t>🇻🇳NHÀ 2.5 TẦNG KHU PHƯỚC LÝ SAU BẾN XE: CÓ NỘI THẤT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>💰 Giá thuê: 5.000 USD/tháng 📍 Vị trí: Đường Trường Sa, P. Hoà Hải, Q. Ngũ Hành Sơn, TP. Đà Nẵng 🏡 Diện tích rộng: 850m² (Ngang 20m) – Không gian biệt lập, yên tĩnh, thoáng đãng. 🏠 Kết cấu: 2 tầng, 4 phòng ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 2,5 tầng đường Nguyễn Thị Cận, Phước Lý (sau bến xe Đà Nẵng). • Diện tích: 105m2, đường 7m5. • Công năng: 03 phòng ngủ, 03 WC, có sân xe oto. • Có 01 điều hoà, có tủ lạnh, máy giặt, bàn ghế, giường tủ như... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Diện tích: 850 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Giá: Thỏa thuận</t>
+          <t>Giá: 10 triệu / tháng</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Đường Trường Sa, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Thị Cận, Phường Hòa An, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016205649-2530-cho-thue-biet-thu-nha-lien-ke-quan-ngu-hanh-son-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/20/thumbnails/016110025-4202-cho-thue-nha-mat-tien-quan-cam-le.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-biet-thu-2-tang-view-san-vuon-ho-boi-5000-usd--16205649.html</t>
+          <t>https://alonhadat.com.vn/-nha-2-5-tang-khu-phuoc-ly-sau-ben-xe-co-noi-that-16110025.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ BIỆT THỰ 2 MẶT TIỀN BIỂN – CÓ PHÒNG VIP CHỦ TỊCH - 6PN - 12.000 USD 🔥</t>
+          <t>🇻🇳NHÀ 2 TẦNG ĐƯỜNG NGUYỄN THỊ BẢY GẦN KINH DƯƠNG VƯƠNG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>💰 Giá thuê: 12.000 USD/tháng 📍 Vị trí đắc địa – Biệt thự 2 mặt tiền biển, tầm nhìn tuyệt đẹp, không gian sống lý tưởng. 🏡 Diện tích rộng: 944m² (Ngang 15m) – Thiết kế sang trọng, không gian biệt lập. 🏠 Kết... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê nhà 2 tầng đường Nguyễn Thị Bảy, Thanh Khê Tây, gần biển Nguyễn Tất Thành. - Diện tích: 95m2, đường 5m5. - Công năng: 03 phòng ngủ, 02 WC. - Giá thuê: 8 triệu/tháng. --------------- CHUYÊN: Cho thuê nhà, mặ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Diện tích: 944 m
+          <t>Diện tích: 95 m
 2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Giá: Thỏa thuận</t>
+          <t>Giá: 8 triệu / tháng</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Đường Trường Sa, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Thị Bảy, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016205668-2904-cho-thue-biet-thu-nha-lien-ke-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/19/thumbnails/016103080-0839-cho-thue-nha-mat-tien-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-biet-thu-2-mat-tien-bien-co-phong-vip-chu-tich-6pn-12-000-usd--16205668.html</t>
+          <t>https://alonhadat.com.vn/-nha-2-tang-duong-nguyen-thi-bay-gan-kinh-duong-vuong-16103080.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ VILLAS MẶT TIỀN BIỂN TRƯỜNG SA – 7PN - 1000M², VIEW BIỂN 🔥</t>
+          <t>🇻🇳MẶT BẰNG GẦN ĐH BÁCH KHOA: NGANG 9M</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>💰 Giá thuê: 12.000 USD/tháng 📍 Vị trí: The Ocean Villas Trường Sa, Đà Nẵng – Khu nghỉ dưỡng cao cấp. 🏡 Diện tích: 1000m² (Ngang 25m) – Không gian biệt lập, sang trọng. 🏠 Kết cấu: 2 tầng, 7 phòng ngủ, 7 WC – ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê mặt bằng gần Đại Học Bách Khoa, Liên Chiểu. • Diện tích: 80m2 (ngang 9m), dtsd: 160m2. • 2 tầng trống suốt, 2 wc. • Giá thuê: 25 triệu/tháng (thương lượng chính chủ) ----------------- CHUYÊN: Cho thuê nhà, ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Diện tích: 1.000 m
+          <t>Diện tích: 80 m
 2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Giá: Thỏa thuận</t>
+          <t>Giá: 25 triệu / tháng</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Đường Trường Sa, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Lương Bằng, Phường Hòa Khánh Bắc, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016205709-3426-cho-thue-biet-thu-nha-lien-ke-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/12/thumbnails/016284663-0839-cho-thue-nha-mat-tien-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-villas-mat-tien-bien-truong-sa-7pn-1000m-view-bien--16205709.html</t>
+          <t>https://alonhadat.com.vn/-mat-bang-gan-dh-bach-khoa-ngang-9m-16284663.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN 12 TẦNG MẶT TIỀN PHẠM VĂN ĐỒNG - 250 M² - 61 PN - GIÁ 350 TRIỆU</t>
+          <t>Cho thuê Kho- Nhà Xưởng tại KCN Đà nẵng. Diện tích từ 200m2 đến 12.500m2. Giá rẻ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 350 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 250 m² (ngang: 10 m) - 12 tầng, 61 phòng ngủ, 62 wc - Đường rộng: 30 m, lề: 5 m Mô tả: Khu vực du lịch đông đúc, cách biển 500m, Có hồ bơi ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Hiện tại khu vực Đà Nẵng tôi đang có các kho - nhà Xưởng - đất lớn cho thuê như sau: * KCN Hoà Khánh. + Kho xưởng 200m. Giá 55k/m. + Kho 600m. Giá 60k/m. + Kho - xưởng 1000m. + kho 720m2 + kho xưởng 1800m2 + Kho ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Diện tích: 250 m
+          <t>Diện tích: 1.700 m
 2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Giá: 350 triệu / tháng</t>
+          <t>Giá: 60 triệu / tháng</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Đường Phạm Văn Đồng, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Trường Sơn, Phường Hòa Thọ Đông, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/12/3/thumbnails/015585367-5846-cho-thue-khach-san-12-tang-pham-van-dong-250-m-61-pn-gia-350-trieu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/3/23/thumbnails/014089852-5514-cho-thue-kho-nha-xuong-tai-kcn-da-nang-dien-tich-tu-200m2-den-12-500m2-gia-re.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-12-tang-pham-van-dong-250-m-61-pn-gia-350-trieu-15585367.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-nha-xuong-tai-kcn-da-nang-dien-tich-tu-200m2-den-12-500m2-gia-re-14089852.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN 11 TẦNGPHAN CHÂU TRINH - 750 M² - 56 PN - GIÁ 400 TRIỆU</t>
+          <t>Cho thuê Kho tại KCN Hoà Cầm Diện tích 500m2-600m2-1200m2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 400 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 750 m² (ngang: 20 m) - 11 tầng, 56 phòng ngủ, 60 wc - Đường rộng: 7.5 m, lề: 4 m Mô tả: Gồm 56 phòng khách sạn và 4 tầng thương mại Giấy ph... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHO XƯỞNG TẠI KCN HÒA CẦM – VỊ TRÍ ĐẮC ĐỊA, GIÁ TỐT Vị trí: Khu Công Nghiệp Hòa Cầm, Đà Nẵng Diện tích: Kho 1: 300m2 có thể cho phép sản xuất ngành may + kho 2: diện tích 500m2 tường xây, PCCC đầy đủ. Chứa ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Diện tích: 750 m
+          <t>Diện tích: 500 m
 2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Giá: 400 triệu / tháng</t>
+          <t>Giá: 25 triệu / tháng</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Đường Phan Châu Trinh, Phường Phước Ninh, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường số 10, Phường Hòa Thọ Đông, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/12/15/thumbnails/015657382-5415-cho-thue-nha-hang-khach-san-quan-hai-chau-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/2/thumbnails/016207680-1659-cho-thue-kho-xuong-quan-cam-le-gia-re.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-11-tangphan-chau-trinh-750-m-56-pn-gia-400-trieu-15657382.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-tai-kcn-hoa-cam-dien-tich-500m2-600m2-1200m2-16207680.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHO THUÊ VĂN PHÒNG 30/4 - 250 M² - 1 PN - GIÁ 44 TRIỆU - phù hợp kinh doanh</t>
+          <t>Cho thuê Kho có cẩu trục mặt tiền quốc lộ 1A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 44 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 250 m² (ngang: 10 m) - 1 tầng, 1 phòng ngủ, 1 wc - Đường rộng: 15 m Mô tả: - thích hợp làm văn phòng GỌI NGỌC NGAY ĐỂ ĐƯỢC TƯ VẤN CHI TIẾT ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê Kho- Xưởng mặt tiền quốc lộ 1A- Hoà Châu. Diện tích: 600m2 Kho Vuông vứt- cực đẹp Có sẵn cẩu trục 5T Đường xe Cont ra vào thoải mái Giá thuê : Chỉ 36tr/ tháng Lưu ý: ảnh minh hoạ, liên hệ trực tiếp để nắm... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Diện tích: 250 m
+          <t>Diện tích: 600 m
 2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Giá: 44 triệu / tháng</t>
+          <t>Giá: 36 triệu / tháng</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Đường 30/4, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
+          <t>Quốc lộ 1A, Xã Hòa Châu, Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/8/29/thumbnails/015017363-5323-cho-thue-van-phong-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/7/16/thumbnails/014795811-5612-cho-thue-kho-co-cau-truc-mat-tien-quoc-lo-1a.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-van-phong-30-4-250-m-1-pn-gia-44-trieu-phu-hop-kinh-doanh-15017363.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-co-cau-truc-mat-tien-quoc-lo-1a-14795811.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN 7 TẦNG ĐƯỜNG LÊ VĂN LƯƠNG, 34 Phòng, Full mùa du lịch</t>
+          <t>Cho thuê Kho tại KCN Hoà Cầm- Đà Nẵng</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 100 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 300 m² (ngang: 15 m) - 7 tầng, 34 phòng ngủ, 35 wc - Đường rộng: 15 m Mô tả: 4005 Chủ cho cải tạo theo loại hình kinh doanh của khách. Thu h... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Tôi đang cho thuê các Kho diện tích như sau tại KCN Hoà Cầm - Kho 300m2 giá 55k/m2 - Kho 600m2 - Kho 800m2 - Kho 1200m2 - Kho 1500m2 Mô tả: Các Kho có đầy đủ PCCC - 1 số Kho có PCCC tự động - Kho xưởng cao, đẹ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 800 m
 2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Giá: 100 triệu / tháng</t>
+          <t>Giá: 42 triệu / tháng</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Đường Lê Văn Lương, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Trường Sơn, Phường Hòa Thọ Tây, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/4/27/thumbnails/014380690-0025-cho-thue-kho-xuong-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-7-tang-duong-le-van-luong-34-phong-full-mua-du-lich-14400576.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-tai-kcn-hoa-cam-da-nang-14380690.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHO THUÊ BIỆT THỰ 2 TẦNG SONG SONG HỒ NGHINH, NGANG 18M, CÓ HỒ BƠI - 5PN - 75 TRIỆU</t>
+          <t>Cho thuê các Kho tại Liên Chiểu Đà Nẵng: diện tích 200 đến 5000m2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 75 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 299.9 m² (ngang: 18 m) - 2 tầng, 5 phòng ngủ, 6 wc - Đường rộng: 10.5 m, lề: 5 m Mô tả: 10181 Hồ bơi thoáng mát xinh yêu ngoài trời nhiều... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Hiện tôi đang cho thuê các Kho Xưởng nhu sau tại Liên Chiểu, Đà Nẵng Mô tả: Kho cao ráo, kiên cố -Đường xe cont đi lại thoải mái -Kho tư nhân hoặc Kho trong KCN - Có đầy đủ điện nước _ các Kho trong KCn đầy đủ PCCC ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 1.000 m
 2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Giá: 75 triệu / tháng</t>
+          <t>Giá: 10 triệu / tháng</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Đường Hồ Nghinh, Phường Mân Thái, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Tôn Đức Thắng, Phường Hòa Khánh Bắc, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/7/3/thumbnails/014730881-3830-cho-thue-biet-thu-nha-lien-ke-quan-son-tra-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2023/5/5/thumbnails/012825568-2440-cho-thue-kho-xuong-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-biet-thu-2-tang-duong-tran-duy-chien-ngang-18m-co-ho-boi-5pn-75-trieu-14730881.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-cac-kho-tai-lien-chieu-da-nang-dien-tich-200-den-5000m2-12825568.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHO THUÊ BIỆT THỰ 2 TẦNG ĐƯỜNG TRƯỜNG SA, 6PN - CÓ HỒ BƠI - NỘI THẤT XỊN</t>
+          <t>Cho Thuê Kho- Nhà Xưởng tại Bến Xe- KCN Hoà Khánh- KCn Liên Chiểu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 14 Nghìn MẼO KIM 2. Thông tin bất động sản - Diện tích: 944 m² (ngang: 15 m) - 2 tầng, 6 phòng ngủ, 7 wc - Đường rộng: 30 m Tiện ích xung quanh: - Bãi đỗ xe: Có Mô tả: 10143 Biệt thư view 2 mặt tiền ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>* Khu vực bến xe tôi có các KHo- Nhà Xưởng sau: - Kho 200m2. - Kho 300m. - Kho 500m. - Kho 600m2 18tr/ tháng - Nhà Xưởng 1000m. giá 40k/m2 - Nhà Xưởng 1700m2 Giá 40k/m2 Giá thuê: 44 ngàn/m2/th (thương lượng chính... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Diện tích: 944 m
+          <t>Diện tích: 1.000 m
 2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Giá: 360 triệu / tháng</t>
+          <t>Giá: 40 triệu / tháng</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Đường Trường Sa, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Tôn Đức Thắng, Phường Hòa Khánh Nam, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/7/4/thumbnails/014736386-3107-cho-thue-biet-thu-2-tang-duong-truong-sa-6pn-co-ho-boi-noi-that-xin.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/2/28/thumbnails/014047081-4836-cho-thue-kho-nha-xuong-tai-ben-xe-kcn-hoa-khanh-kcn-lien-chieu.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-biet-thu-2-tang-duong-truong-sa-6pn-co-ho-boi-noi-that-xin-14736386.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-nha-xuong-tai-ben-xe-kcn-hoa-khanh-kcn-lien-chieu-14047081.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN 10 TẦNG SONG SONG SƠN THỦY ĐÔNG 4- 45 PN - 250 TRIỆU - PCCC ĐẦY ĐỦ</t>
+          <t>cho thuê Kho 400m2 Lương Trúc Đàm - bến xe Đà Nẵng</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. Giá thuê: 250 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 343 m² (ngang: 16 m) - 10 tầng, 45 phòng ngủ, 45 wc - Đường rộng: 7.5 m, lề: 4.5 m Mô tả: Khu vực sầm uất du lịch GỌI NGỌC NGAY ĐỂ ĐƯỢC TƯ ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>cho thuê Kho- Xưởng tại đường LƯơng Trúc Đàm- đối diện bến xe trung tâm Đà Nẵng Diện tích 400m2 mô tả: Kho cao thoáng Có sân bãi rộng rãi- khoảng 200-300m2 Đường xe tải lớn ra vào thoải mái Kho có sẵn 1 văn phòng kí... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Diện tích: 343 m
+          <t>Diện tích: 400 m
 2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Giá: 250 triệu / tháng</t>
+          <t>Giá: 22 triệu / tháng</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Đường Sơn Thủy Đông 4, Phường Khuê Mỹ, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Lương Trúc Đàm, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/6/26/thumbnails/014690062-2715-cho-thue-nha-hang-khach-san-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/2/27/thumbnails/015960709-1216-cho-thue-kho-xuong-quan-lien-chieu.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-9-tang-duong-nguyen-xien-45-pn-200-trieu-tl--14690062.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-400m2-luong-truc-dam-ben-xe-da-nang-15960709.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cần cho thuê lô góc ngã 4 gần 300m đường Mai Chí Thọ, Hòa Xuân đoạn sầm uất</t>
+          <t>Cho thuê Kho tại KCN An Đồn - Sơn Trà Đà Nẵng</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>- Cần cho thuê lô góc ngã 4 đường Mai Chí Thọ, Hòa Xuân - Vị trí đẹp, 2 đường thông dài - Khu vực sầm uất thích hợp mở gara - Diện tích: 296m, ngang 13m, x 22.8m - Hướng Tây Bắc và Đông Bắc - Giá 12tr/tháng - Lh C... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>cho thuê Kho tại KCN An Đồn như sau: Kho 200m2 Kho 400m2 Kho 500m2 Kho 1100m2 Giá thuê linh hoạt từ 55k/m2 đến 60k/m2 Quý khách hàng liên hệ trực tiếp để được tư vấn Kho Xưởng phù hợp. Trân trọng cảm ơn .... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Diện tích: 296 m
+          <t>Diện tích: 500 m
 2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Giá: 12 triệu / tháng</t>
+          <t>Giá: 27 triệu / tháng</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Đường Mai Chí Thọ, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Số 1, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/7/11/thumbnails/014768992-1042-cho-thue-kho-xuong-quan-son-tra-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/can-cho-thue-lo-goc-nga-4-gan-300m-duong-mai-chi-tho-hoa-xuan-doan-sam-uat-14591909.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-tai-kcn-an-don-son-tra-da-nang-14768992.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cần cho thuê căn biệt thự 2 tầng đường Đinh Gia Trinh, thích hợp ở và kinh doanh</t>
+          <t>Cho thuê Kho tại KCN Hoà Khánh : 400m2 và 540m2 giá 55k/m2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>- Cần cho thuê căn biệt thự 2 tầng đường Đinh Gia Trinh, thích hợp ở và kinh doanh - Vị trí đẹp, gần sông gần các trục đương chính - Nằm trên con đường huyết mạch của dự án - Đường 10m5 thông suốt - Công năng: 3pn có... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Tôi đang cho thuê Kho tại KCN Hoà Khánh: Diện tích : + Kho 400m2 + Kho 540m2 + Kho 720m2 + Kho 1000m2 + Kho 1800m2 Mô tả chi tiết: Các Kho cao, không bị ngập nước - Đường xe cont thoải mái, sân bãi rộng - Kh... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 550 m
 2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Giá: 30 triệu / tháng</t>
+          <t>Giá: 27 triệu / tháng</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Đường Đinh Gia Trinh, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường số 6, Phường Hòa Khánh Bắc, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2024/3/11/thumbnails/014104875-0216-can-cho-thue-can-biet-thu-2-tang-duong-dinh-gia-trinh-thich-hop-o-va-kinh-doanh.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/1/29/thumbnails/013987914-1618-cho-thue-kho-xuong-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/can-cho-thue-can-biet-thu-2-tang-duong-dinh-gia-trinh-thich-hop-o-va-kinh-doanh-14104875.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-kho-tai-kcn-hoa-khanh-400m2-va-540m2-gia-55k-m2-13987914.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cần cho thuê lô góc Lê Quãng Chí với Thái Văn Lung, Hòa Xuân</t>
+          <t>NGUYỄN VĂN LINH 1150M ĐẤT TRỐNG SIÊU VIP - TO NHẤT ĐƯỜNG CHO THUÊ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>- Cần cho thuê lô góc Lê Quãng Chí với Thái Văn Lung, Hòa Xuân - Vị trí đẹp, đonạ đầu đường gần Nguyễn Phước Lan - Khu vực sầm uất, thích hợp kinh doanh buôn bán - Diện tích: 160m, ngang 8m x 20m - Hướng Đông Nam và ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Đất đường Nguyễn Văn Linh, Quận Thanh Khê, TP.Đà Nẵng.LÔ LỚN NHẤT ĐƯỜNG CHO THUÊ - Diện tích: 1.150 m2 - Mặt ngang :20m - Vị trí,nhận diện tốt ,thoáng (cạnh sân bay ĐNA),phù hợp với các mô hình kinh doanh - Thời g... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Diện tích: 160 m
+          <t>Diện tích: 1.150 m
 2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Giá: 10 triệu / tháng</t>
+          <t>Giá: 200 triệu / tháng</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Đường Lê Quảng Chí, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Linh, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2366,860 +2366,860 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/can-cho-thue-lo-goc-le-quang-chi-voi-thai-van-lung-hoa-xuan-14322240.html</t>
+          <t>https://alonhadat.com.vn/nguyen-van-linh-1150m-dat-trong-sieu-vip-to-nhat-duong-cho-thue-15769448.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cần cho thuê kho 277m đường Võ Chí Công, Hòa Xuân</t>
+          <t>Cho thuê căn hộ Full nội thất đường Chính Hữu, giá 5tr/tháng</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>- Cần cho thuê kho đường Võ Chí Công, Hòa Xuân - Vị trí gần Trần Nam Trung - Đường huyết mạch của Hòa Xuân - Diện tích: 277m, ngang 15m x 18m - Hướng Tây Nam - Giá: 27tr/tháng - Lh Chung để xem kho và làm việc - X... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>- Cho thuê căn hộ mặt tiền đường Chính Hữu. - - Căn hộ full nội thất, sát biển chỉ vài bước chân ra đến biển Mỹ Khê. - Tiện ích xung quanh bạc ngàn. - Giao thông thuận tiện, đường trước nhà 15m. ☎️ Alo Nhung xem ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Diện tích: 277 m
+          <t>Diện tích: 20 m
 2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Giá: 27 triệu / tháng</t>
+          <t>Giá: 5 triệu / tháng</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Đường Võ Chí Công, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Chính Hữu, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/31/thumbnails/016193413-4158-cho-thue-nha-mat-tien-da-nang.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/can-cho-thue-kho-277m-duong-vo-chi-cong-hoa-xuan-14818366.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-can-ho-full-noi-that-duong-chinh-huu-gia-5tr-thang-16193413.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cho thuê lô Góc 2 M tiền đường Minh Mạng –Thâm Tâm 6tr/tháng</t>
+          <t>Cho thuê căn hộ HAGL, Tầng 26, view đẹp 8.5/tháng</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cho thuê lô đất góc 2 mặt tiền đường Minh Mạng và Thâm Tâm Đà Nẵng Vị trí đẹp rất thuận tiện kinh doanh, lô góc 2 mặt tiền, sát Võ Chí Công. Diện tích : 6,3m x 20m.Hướng:Tây-Bắc - Cho thuê lâu dài 5 năm - Thanh toán 6 t... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ CĂN HỘ HAGL VIEW BỜ HỒ HÀM NGHI + Tầng 26 + Diện tích 2 phòng ngủ: 93.56 m2. + 2 phòng ngủ, 2 nhà vệ sinh. + Nội thất tiện nghi đầy đủ. Tiện ích: + An ninh 24/7. + Không gian sinh hoạt thể dục thể tha... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Diện tích: 123 m
+          <t>Diện tích: 94 m
 2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Giá: 6 triệu / tháng</t>
+          <t>Giá: 8,5 triệu / tháng</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Đường Minh Mạng, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Hàm Nghi, Phường Thạc Gián, Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/14/thumbnails/016071965-1948-cho-thue-dat-nen-lien-ke-dat-du-an-quan-cam-le-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/20/thumbnails/016114944-1602-cho-thue-can-ho-chung-cu-da-nang.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-lo-goc-2-m-tien-duong-minh-mang-tham-tam-6tr-thang-16071965.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-can-ho-hagl-tang-26-view-dep-9tr-thang-16114944.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ChO THUÊ KHÁCH SẠN 14 PHÒNG QUẬN HẢI CHÂU- ĐÀ NẴNG- DT 90M2X 9 TẦNG- CÓ PCCC</t>
+          <t>🎑CHO THUÊ NHÀ 2 TẦNG MẶT TIỀN HOÀNG BÍCH SƠN, SƠN TRÀ🍁🍁</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cho Thuê Khách Sạn 14 Phòng – quận Hải Châu Đà Nẵng 🏨 Thông tin chi tiết: Quy mô: Nhà 9 tầng với thiết kế hiện đại, bao gồm 14 phòng đầy đủ tiện nghi ( bao gồm cả phòng riêng và phòng , tối ưu cho kinh doanh khách... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ NHÀ 2 TẦNG MẶT TIỀN ĐƯỜNG: HOÀNG BÍCH SƠN - KHU PHỐ HÀN - p An Hải Bắc - SÁT BIỂN SƠN TRÀ *** Tầng 1 thông suốt, gồm 2 phòng ngủ , 4 wc *** ĐẦY ĐỦ NỔI THẤT VÀO Ở NGAY *** thích hợp ở làm vp, spa... *** C... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Diện tích: 810 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Giá: 120 triệu / tháng</t>
+          <t>Giá: 16 triệu / tháng</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Đường Trần Phú, Phường Phước Ninh, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Hoàng Bích Sơn, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/10/thumbnails/016035581-5623-cho-thue-nha-hang-khach-san-quan-hai-chau-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/8/thumbnails/016460625-4612-cho-thue-nha-mat-tien-quan-son-tra-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-14-phong-quan-hai-chau-da-nang-dt-90m2x-9-tang-co-pccc-16035581.html</t>
+          <t>https://alonhadat.com.vn/-cho-thue-nha-2-tang-mat-tien-hoang-bich-son-son-tra--16460625.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🌟🌟🌟CHO THUÊ NHÀ HOÀ MINH 21 MỚI ĐẸP ĐẦY ĐỦ NỘI THẤT LH EM HỌC🌟🌟🌟</t>
+          <t>Văn phòng cho thuê 100m2 quận Hải Châu giá chỉ từ 10tr/tháng</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>156. Nắm chính chủ cho thuê nhà mặt tiền hoà minh Diện tích đất: 75m2 x3 tầng Công năng : 3PN 3WC full nội thất, cửa gỗ sồi cao cấp | KDC an ninh, gần U.BND quận Liên Chiểu. Hướng : đông nam 🛒... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: 1️⃣ Văn phòng 1 - Vị trí thuê: đường Xô Viết Nghệ Tĩnh - Diện tích sàn: 270 m2 - Diện tích sử dụng: 110 m2 - Giá cho thuê: 16tr/tháng - Thời gian làm việc T2 - T7: 7:30 - 18:00 - Cọc 3, thanh... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Diện tích: 75 m
+          <t>Diện tích: 110 m
 2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Giá: 17 triệu / tháng</t>
+          <t>Giá: 11 triệu / tháng</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Đường Hoà Minh 21, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Đường Xô Viết Nghệ Tĩnh, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/7/thumbnails/016451956-0140-cho-thue-van-phong-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-hoa-minh-21-moi-dep-day-du-noi-that-lh-em-hoc--16029294.html</t>
+          <t>https://alonhadat.com.vn/van-phong-cho-thue-100m2-quan-hai-chau-gia-chi-tu-10tr-thang-16451956.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🌟🌟🌟SIÊU PHẨM NHÀ ĐẸP KHU BIỂN NGUYỄN TẤT THÀNH VỊ TRÍ CÁCH BIỂN VÀI TRĂM MÉT LH MR HỌC</t>
+          <t>Cho Thuê văn phòng 300 m2 Hải Châu, view cực đỉnh, làm việc 24/7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>144. SIÊU PHẨM NHÀ ĐẸP KHU BIỂN NGUYỄN TẤT THÀNH VỊ TRÍ CÁCH BIỂN VÀI TRẮM MÉT Vị trí : Gần trường học, chợ, ub quận, cách biển 500m 💥Dtđ: 74m. Ngang 5,5m 💥Công năng gồm: 3pn, 4 toilet, gara ô tô, p... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: 1️⃣ Văn phòng 1 - Vị trí thuê: đường Lê Đình Lý - Diện tích sàn: 320 m2 - Diện tích sử dụng: 240 m2 - Giá cho thuê: 68.000.000 VND/tháng (chưa bao gồm VAT) - Thời gian làm việc 24/7 - Tiện íc... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Diện tích: 75 m
+          <t>Diện tích: 310 m
 2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Giá: 17 triệu / tháng</t>
+          <t>Giá: 275 ngàn / m2  / tháng</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Đường Hoà Minh 15, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Đường Pasteur, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/19/thumbnails/016102556-3229-ban-nha-mat-tien-quan-lien-chieu-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016433730-5100-cho-thue-van-phong-quan-hai-chau-gia-re.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-sieu-pham-nha-dep-khu-bien-nguyen-tat-thanh-vi-tri-cach-bien-vai-tram-met-lh-mr-hoc-16102556.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-van-phong-300-m2-hai-chau-view-cuc-dinh-lam-viec-24-7-16433730.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cho thuê mặt bằng kinh doanh 70m2 ngay ngã 4 của 2 đường 10m5 Nam Nguyễn Tri Phương</t>
+          <t>Văn phòng đường Lê Đình Lý, diện tích linh hoạt, thiết kế đẹp, vị trí trung tâm</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Vị trí : nhà nằm đường 10m5 Bùi Trang Chước, Hoà Xuân, Cẩm Lệ,Đà Nẵng - Diện tích : 70m2 ngang 5m - Nhà cách ngã 4 của 2 đường 10m5 Bùi Trang Chước và Mai Chí Thọ 30m - Đường Mai Chí Thọ là trục chính nối thẳng sân vậ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: - Vị trí thuê: đường Lê Đình Lý - Diện tích sàn: 320 m2 - Diện tích sử dụng: 100-240m2 - Giá cho thuê: 13$/m2/tháng (chưa bao gồm VAT) (chưa bao gồm VAT) - Thời gian làm việc 24/7 - Tiện ích: ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Diện tích: 70 m
+          <t>Diện tích: 240 m
 2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Giá: 8 triệu / tháng</t>
+          <t>Giá: 68 triệu / tháng</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Đường Bùi Trang Chước, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Lê Đình Lý, Phường Vĩnh Trung, Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/16/thumbnails/016083955-0851-cho-thue-mat-bang-quang-nam-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/5/thumbnails/016436486-0738-van-phong-duong-le-dinh-ly-dien-tich-linh-hoat-thiet-ke-dep-vi-tri-trung-tam.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-mat-bang-kinh-doanh-70m2-ngay-nga-4-cua-2-duong-10m5-nam-nguyen-tri-phuong-16083955.html</t>
+          <t>https://alonhadat.com.vn/van-phong-duong-le-dinh-ly-dien-tich-linh-hoat-thiet-ke-dep-vi-tri-trung-tam-16436486.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cho thuê nhà cấp 4 nguyên căn 81m2 được 3 phòng ngủ ngay bệnh viện Bình Dân giá rẻ</t>
+          <t>Văn phòng 300m2 Núi Thành, Hải Châu, làm việc 24/7 chỉ 12.5$</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cho thuê nhà cấp 4 nguyên căn kiệt Trần Cao Vân, Thanh Khê Đà Nẵng - Nhà cấp 4 có gác lửng , có thể chia ra được 2,3 phòng ngủ - Nhà diện tích lớn 81m2 nên rất thoáng - Vị trí gần khúc bệnh viện Bình Dân - Giá 5 triệ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: - Vị trí thuê: đường Núi Thành - Diện tích sàn: 750 m2 - Diện tích sử dụng: 300 m2 - Giá cho thuê: 12,5 $/m2/tháng (chưa vat ) - Thời gian làm việc 24/7 - Cọc 3 thanh toán 3 - Tiện ích: Diện ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Diện tích: 81 m
+          <t>Diện tích: 300 m
 2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Giá: 5 triệu / tháng</t>
+          <t>Giá: 312 ngàn / m2  / tháng</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Đường Trần Cao Vân, Phường Xuân Hà, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Núi Thành, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/2/thumbnails/016422549-1705-cho-thue-nha-trong-hem-quan-thanh-khe-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016443951-4334-cho-thue-van-phong-da-nang.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-cap-4-nguyen-can-81m2-duoc-3-phong-ngu-ngay-benh-vien-binh-dan-gia-re-16422549.html</t>
+          <t>https://alonhadat.com.vn/van-phong-300m2-nui-thanh-hai-chau-lam-viec-24-7-chi-12-5--16443951.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cho thuê đất lô góc Nguyễn Hiến Lê &amp; Bùi Thiện Ngộ,Hòa Xuân,Cẩm Lệ</t>
+          <t>Văn phòng cho thuê 20-30 nhân viên giá dưới 30tr/tháng</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>- Cho thuê đất lô góc đường 7m5 Nguyễn Hiến Lê &amp; Bùi Thiện Ngộ,Hòa Xuân,Cẩm Lệ - Diện tích : 164m2 ( Ngang 8m ) - Hướng Đông Nam - Giá thuê : 7 triệu /tháng - Cho thuê lâu dài - Khu dân cư hiện hữu - Quan tâm liên... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: 1️⃣ Văn phòng gần sân bay - Vị trí thuê: đường Nguyễn Văn Linh - Diện tích cho thuê: 170m2 - Giá cho thuê : 25tr/tháng - Tiện ích: Thời gian làm việc linh hoạt, Văn phòng rộng rãi, sáng sủa, ch... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Diện tích: 164 m
+          <t>Diện tích: 170 m
 2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Giá: 7 triệu / tháng</t>
+          <t>Giá: 18,6 triệu / tháng</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Hiến Lê, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Trần Phú, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/18/thumbnails/016329075-1730-cho-thue-dat-nen-lien-ke-dat-du-an-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016440702-0805-van-phong-cho-thue-20-30-nhan-vien-gia-duoi-30tr-thang.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-dat-lo-goc-nguyen-hien-le-bui-thien-ngo-hoa-xuan-cam-le-16329075.html</t>
+          <t>https://alonhadat.com.vn/van-phong-cho-thue-20-30-nhan-vien-gia-duoi-30tr-thang-16440702.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cho thuê đất 290m2 đường 10m5 Bùi Trang Chước &amp; Phạm Xuân Ẩn,Hòa Xuân</t>
+          <t>Văn phòng 300m2 vị trí đắc địa quận Hải Châu, dịch vụ chuyên nghiệp, giá tốt</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>- Cho thuê đất đường 10m5 Bùi Trang Chước &amp; Phạm Xuân Ẩn,Hòa Xuân - Diện tích : 290m2 ( Ngang 13m ) - Hướng Tây Bắc &amp; đông bắc - Góc ngã 4 đường thông dài - Khu vực dân cư hiện hữu - Giá thuê : 12 triệu/tháng - Liê... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: - Vị trí thuê: đường Pasteur - Diện tích sàn: 450 m2 - Diện tích sử dụng: 310 m2 - Giá cho thuê 12 $/m2/tháng (chưa VAT) - Thời gian làm việc T2-T6 7:30-18:00, T7 7:30-12H - Tiện ích: Free 16... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Diện tích: 290 m
+          <t>Diện tích: 310 m
 2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Giá: 12 triệu / tháng</t>
+          <t>Giá: 300 ngàn / m2  / tháng</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Đường Bùi Trang Chước, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Pasteur, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/18/thumbnails/016329162-2349-cho-thue-dat-nen-lien-ke-dat-du-an-quan-cam-le-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/7/thumbnails/016448672-2256-cho-thue-van-phong-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-dat-290m2-duong-10m5-bui-trang-chuoc-pham-xuan-an-hoa-xuan-16329162.html</t>
+          <t>https://alonhadat.com.vn/van-phong-300m2-vi-tri-dac-dia-quan-hai-chau-dich-vu-chuyen-nghiep-gia-tot-16448672.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cho thuê MB đất 300m2 đường Nguyễn Phước Lan,Hòa Xuân,Cẩm Lệ giá 22tr/tháng</t>
+          <t>💥 Cho thuê văn phòng đường 30/4 sẵn trần sàn, vị trí cực đẹp tại trung tâm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>- Cho thuê đất mặt tiền đường 2 làn Nguyễn Phước Lan,Hòa Xuân,Cẩm Lệ - Diện tích đất : 300m2 ( Ngang 15m x Dài 20m ) - Hướng Tây Nam - Vị trí gần góc đường Mai chí Thọ - Khu vực kinh doanh buôn bán - Giá thuê : 22 t... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>THÔNG TIN CHO THUÊ: - Vị trí thuê: đường 30/4 - Diện tích cho thuê: 140 m2 tầng 1 - Giá cho thuê: 320.000 vnd/m2 - Tiện ích: Sẵn đèn trần sàn có thể dọn vào ngay, điều hòa, ngay tại trung tâm, vị trí cực đẹp, có k... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 140 m
 2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Giá: 22 triệu / tháng</t>
+          <t>Giá: 320 ngàn / m2  / tháng</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Phước Lan, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường 30/4, Phường Bình Thuận, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/11/thumbnails/016037614-1404-cho-thue-dat-nen-lien-ke-dat-du-an-quan-cam-le.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/29/thumbnails/016407082-3812-cho-thue-van-phong-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/ban-nha-kho-duong-7m5-ho-phi-tich-hoa-xuan-cam-le-gia-ban-4-ty-650-16037614.html</t>
+          <t>https://alonhadat.com.vn/-cho-thue-van-phong-duong-30-4-san-tran-san-vi-tri-cuc-dep-tai-trung-tam-16407082.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>🇻🇳💎 CHO THUÊ TÒA NHÀ 6 TẦNG MỚI XÂY ĐƯỜNG : XUÂN THỦY -PCCC - THANG MÁY</t>
+          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN 2 TẦNG ĐƯỜNG NGUYỄN VĂN LINH, P. NAM DƯƠNG, Q. HẢI CHÂU,</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>𝐂𝐇𝐎 𝐓𝐇𝐔Ê 𝐓Ò𝐀 𝐍𝐇À 𝟔 𝐓Ầ𝐍𝐆 𝐌Ớ𝐈 𝐗Â𝐘 𝟏𝟎𝟎% - 𝐊𝐇𝐔 𝐇Ò𝐀 𝐂ƯỜ𝐍𝐆 *** 𝐃𝐢ệ𝐧 𝐭í𝐜𝐡 đấ𝐭 𝟏𝟎𝟎𝐦𝟐 - 𝐝𝐭𝐬𝐝 𝟔𝟎𝟎𝐦𝟐 *** đườ𝐧𝐠 𝐭𝐫ướ𝐜 𝐧𝐡à 𝟑𝟑𝐦 - Đậ𝐮 Đỗ ô 𝐭ô 𝐭𝐡ỏ𝐚 𝐦á𝐢 👉 𝐭ầ𝐧𝐠 ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ NHÀ NGUYÊN CĂN MẶT TIỀN 2 TẦNG ĐƯỜNG NGUYỄN VĂN LINH, P. NAM DƯƠNG, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-9903) 1. Giá thuê: 35 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 112 m² (ngang: 4.5 m) - 2 tần... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Diện tích: 600 m
+          <t>Diện tích: 112 m
 2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Giá: 55 triệu / tháng</t>
+          <t>Giá: 35 triệu / tháng</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Đường Xuân Thủy, Phường Khuê Trung, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Linh, Phường Nam Dương, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/19/thumbnails/016335684-2502-cho-thue-nha-mat-tien-quan-cam-le.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-toa-nha-6-tang-moi-xay-duong-xuan-thuy-pccc-thang-may-16335684.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-nguyen-can-mat-tien-2-tang-duong-nguyen-van-linh-p-nam-duong-q-hai-chau--16038177.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>🇻🇳 CHO THUÊ NHÀ ĐƯỜng: HOÀNG BÍNH CHÍNH - 4PN</t>
+          <t>CHO THUÊ KHÁCH SẠN 7 TẦNG ĐƯỜNG NGUYỄN CÔNG TRỨ, 19 Phòng giá 75tr/tháng</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 3 TẦNG : HOÀNG BÌNH CHÍNH - HOÀ HẢI - GẦN BIỂN NON NƯỚC - HÒA HẢI - NGŨ HÀNH SƠN *** Diện tích đất : 100m2 *** Đường 7m5 *** Nhà có 4 phòng ngủ , 3wc *** NHÀ ĐẦY ĐỦ NỘI THẤT VÀO Ở NGAY *** Giá thuê:... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 7 TẦNG ĐƯỜNG NGUYỄN CÔNG TRỨ, P. PHƯỚC MỸ, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-8011) 1. Giá thuê: 75 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 130 m² (ngang: 5 m) - 7 tầng, 19 phòng ngủ, 1... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 130 m
 2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Giá: 20 triệu / tháng</t>
+          <t>Giá: 75 triệu / tháng</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Đường Hoàng Bình Chính, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Công Trứ, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/16/thumbnails/016317784-4249--cho-thue-nha-duong-hoang-binh-chinh-4pn.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-duong-hoang-binh-chinh-4pn-16317784.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-7-tang-duong-nguyen-cong-tru-19-phong-gia-75tr-thang-16050604.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>❤️🇻🇳 CHO THUÊ NHÀ 3 TẦNG MẶT TIỀN: LÝ THƯỜNG KIỆT -</t>
+          <t>CHO THUÊ KHÁCH SẠN ĐƯỜNG VÕ NGUYÊN GIÁP, 62 Phòng, Giá 250tr/tháng</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cho Th.uê Nhà 3,5 Tầng Mặt Tiền Đường Lý Thường Kiệt , phường thạch thang - Hải Châu - Diện tích đất: 50m2 x 3 tầng (ngang 4,5m) , dtsd : 150m2 - Tầng 1 và 2 trống suốt , trên có 1 phòng - Phù hợp kinh doanh sạch ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN ĐƯỜNG VÕ NGUYÊN GIÁP, P. PHƯỚC MỸ, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-10945) 1. Giá thuê: 250 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 554 m² (ngang: 15.1 m) - 8 tầng, 62 phòng ngủ, 57 w... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Diện tích: 60 m
+          <t>Diện tích: 554 m
 2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Giá: 20 triệu / tháng</t>
+          <t>Giá: 250 triệu / tháng</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Đường Lý Thường Kiệt, Phường Thạch Thang, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Võ Nguyên Giáp, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/8/thumbnails/016254538-3715-cho-thue-nha-mat-tien-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-mat-tien-ly-thuong-kiet--16254538.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-duong-vo-nguyen-giap-62-phong-gia-250tr-thang-16046120.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>🇻🇳🆗️ CHO THUÊ NHÀ 3 TẦNG LÝ NHÂN TÔNG</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG PHAN CHÂU TRINH, CÓ HỒ BƠI</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 3 TẦNG MẶT TIỀN: LÝ NHÂN TÔNG - ĐÀ NẴNG *** Diện tích 90m2 - đường 7m5 đậu xe thỏa mái *** gồm 4 phòng ngủ, 4wc, phòng khách, bếp, phòng sinh hoạt chung , sân thượng, sân phơi *** cho thuê 15tr/ tháng... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG PHAN CHÂU TRINH, P. PHƯỚC NINH, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-10715) 1. Giá thuê: 100 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 275 m² (ngang: 9.5 m) - 3 tầng, 4 phòng n... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 275 m
 2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Giá: 15 triệu / tháng</t>
+          <t>Giá: 100 triệu / tháng</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Đường Lý Nhân Tông, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Phan Châu Trinh, Phường Phước Ninh, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/9/thumbnails/016262908-5250-cho-thue-nha-mat-tien-quan-hai-chau-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/11/thumbnails/016043752-1139-cho-thue-biet-thu-nha-lien-ke-quan-hai-chau.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-ly-nhan-tong-16262908.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-3-tang-duong-phan-chau-trinh-co-ho-boi-16043752.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🇻🇳🆗️ CHO THUÊ KHÁCH SẠN GỒM 16 PHÒNG - ĐƯỜNG 29/3</t>
+          <t>CHO THUÊ ĐẤT MẶT TIỀN ĐƯỜNG LÊ QUẢNG CHÍ - CỒN DẦU 15, P. HÒA XUÂN, Q. CẨM LỆ, TP. ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CHO THUÊ KHÁCH SẠN 16 PHÒNG ĐƯỜNG 29/3 - HÒA XUÂN - CẨM LỆ *** Diện tích đất 100m2 *** kết cấu 4 tầng - 16 phòng wc khép kín *** CÓ SẴN HỆ THỐNG PCCC *** Đầy đủ nội thất vào vận hành làm ks, căn hộ ... *** Cho thu... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ ĐẤT MẶT TIỀN ĐƯỜNG LÊ QUẢNG CHÍ - CỒN DẦU 15, P. HÒA XUÂN, Q. CẨM LỆ, TP. ĐÀ NẴNG (h-7185) 1. Giá thuê: 25 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 356 m² (ngang: 20 m) - Đường rộng: 10.5 ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 356 m
 2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Giá: 50 triệu / tháng</t>
+          <t>Giá: 25 triệu / tháng</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Đường 29/3, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Lê Quảng Chí, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/9/thumbnails/016262925-5536-cho-thue-nha-hang-khach-san-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-khach-san-gom-16-phong-duong-29-3-16262925.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-dat-mat-tien-duong-le-quang-chi-con-dau-15-p-hoa-xuan-q-cam-le-tp-da-nang-16043958.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🇻🇳🆗️ CHO THUÊ NHÀ 3 TẦNG: HOÀNG ĐỨC LƯƠNG - 3PN - 4WC</t>
+          <t>CHO THUÊ KHÁCH SẠN 8 TẦNG MẶT TIỀN ĐƯỜNG NGUYỄN VĂN NGUYỄN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 3 tầng MT Hoàng Đức Lương, An Hải Bắc, Sơn Trà *** Diện tích: 100m2 *** Gồm phòng khách rộng, 3 phòng ngủ, 4wc, sân thượng, phòng kho *** Nội thất đầy đủ ** cho thuê 17tr/ tháng ====================... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 8 TẦNG MẶT TIỀN ĐƯỜNG NGUYỄN VĂN NGUYỄN PHƯỜNG HÒA HẢI QUẬN NGŨ HÀNH SƠN (h-1818) 1. Giá thuê: 90 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 133.5 m² (ngang: 6 m) - 8 tầng, 16 phòn... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 133 m
 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Giá: 17 triệu / tháng</t>
+          <t>Giá: 90 triệu / tháng</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Đường Hoàng Đức Lương, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Nguyễn, Phường Hòa Hải, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/11/thumbnails/016279973-3321-cho-thue-nha-mat-tien-quan-son-tra-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-hoang-duc-luong-3pn-4wc-16279973.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-8-tang-mat-tien-duong-nguyen-van-nguyen-16087014.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🇻🇳🆗️ CHO THUÊ NHÀ 2 TẦNG: MAI CHÍ THỌ - 3PN - ĐỦ NỘI THẤT</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG LÊ THANH NGHỊ, Diện tích 223m2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 2 TẦNG MẶT TIỀN: MAI CHÍ THỌ - HÒA XUÂN - CẨM LỆ *** Diện tích 100m2 *** đường 10m5- hướng tây *** tầng 1 thông suốt, gồm 3 phòng ngủ - 2wc *** Nhà đầy đủ nội thất *** cho thuê 13tr/ tháng... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG LÊ THANH NGHỊ - Ỷ LAN NGUYÊN PHI, P. HÒA CƯỜNG BẮC, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-10967) 1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 223 m² (ngang: 9 m) - ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 223 m
 2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Giá: 13 triệu / tháng</t>
+          <t>Giá: 45 triệu / tháng</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Đường Mai Chí Thọ, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Lê Thanh Nghị, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/11/thumbnails/016279992-3604-cho-thue-nha-mat-tien-quan-cam-le-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-2-tang-mai-chi-tho-3pn-du-noi-that-16279992.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-3-tang-duong-le-thanh-nghi-dien-tich-223m2-16059806.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>🇻🇳💎 CHO THUÊ NHÀ 3 TẦNG: HẢI PHÒNG - BỀ NGANG 9M</t>
+          <t>CHO THUÊ KHÁCH SẠN 10 TẦNG ĐƯỜNG TRẦN HƯNG ĐẠO, view pháo hoa</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 3 TẦNG MẶT TIỀN: HẢI PHÒNG - HẢI CHÂU *** Diện tích 150m2 bề ngang 9m *** tầng 1 thông suốt, trên có 3 phòng rộng *** vị trí sầm uất , gần bệnh viện đa khoa, trung tâm hải châu *** cho thuê 40 triệu/ t... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 10 TẦNG ĐƯỜNG TRẦN HƯNG ĐẠO, P. AN HẢI BẮC, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-6752) 1. Giá thuê: 300 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 375 m² (ngang: 15 m) - 10 tầng, 60 phòng ng... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Diện tích: 150 m
+          <t>Diện tích: 375 m
 2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Giá: 40 triệu / tháng</t>
+          <t>Giá: 300 triệu / tháng</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Đường Hải Phòng, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Trần Hưng Đạo, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/12/thumbnails/016281828-1942-cho-thue-nha-mat-tien-quan-hai-chau-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-hai-phong-be-ngang-9m-16281828.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-10-tang-duong-tran-hung-dao-view-phao-hoa-16062292.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>🇻🇳🆗️ CHO THUÊ NHÀ 2 TẦNG : ĐƯỜNG NGUYỄN PHƯỚC NGUYÊN - 3PN</t>
+          <t>CHO THUÊ KHÁCH SẠN 5 TẦNG ĐƯỜNG NGUYỄN ĐỨC THUẬN, P. KHUÊ MỸ, Q. NGŨ HÀNH SƠN, TP. ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 2 tầng mặt tiền đường: Nguyễn Phước Nguyên , An Khê, Thanh Khê *** Diện Tích : 77m2 x2 tầng *** công năng 3 phòng ngủ, 2wc, pk, bếp... *** Thích hợp spa , vp, shop.. *** cho thuê: 12tr/tháng... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 5 TẦNG ĐƯỜNG NGUYỄN ĐỨC THUẬN, P. KHUÊ MỸ, Q. NGŨ HÀNH SƠN, TP. ĐÀ NẴNG (h-10686) 1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 100 m² (ngang: 5 m) - 5 tầng, 15 phòng ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Diện tích: 77 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Giá: 12 triệu / tháng</t>
+          <t>Giá: 45 triệu / tháng</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Phước Nguyên, Phường An Khê, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Nguyễn Đức Thuận, Phường Khuê Mỹ, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/30/thumbnails/016188807-2253-cho-thue-nha-mat-tien-quan-thanh-khe.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-2-tang-duong-nguyen-phuoc-nguyen-3pn-16188807.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-5-tang-duong-nguyen-duc-thuan-p-khue-my-q-ngu-hanh-son-tp-da-nang-16052322.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>🇻🇳💎 CHO THUÊ NHÀ 2 TẦNG: NGUYỄN HỮU THỌ - TẦNG 1 THÔNG SUỐT</t>
+          <t>CHO THUÊ KHÁCH SẠN KHU BIỂN , HIỆN TẠI ĐANG KINH DOANH.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 2.5 Tầng MT Nguyễn Hữu Thọ gần Trưng Nữ Vương - Diện Tích : 100 m2 ( DTSD: 250m2) - Tầng 1 trống , trên 3 PN - Cho Kinh Doanh Tất cả - Giá : 15 triệu / tháng ====================== 💎 ĐỖ BÌNH: ( Ⓝ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN, P. PHƯỚC MỸ, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-5033) 1. Giá thuê: 150 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 150 m² (ngang: 6 m) - 8 tầng, 35 phòng ngủ, 36 wc Mô tả: - Vị trí khu đ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 150 m
 2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Giá: 15 triệu / tháng</t>
+          <t>Giá: 150 triệu / tháng</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Hữu Thọ, Phường Hòa Thuận Tây, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Loseby, Phường Phước Mỹ, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/30/thumbnails/016188965-4642-cho-thue-nha-mat-tien-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-2-tang-nguyen-huu-tho-tang-1-thong-suot-16188965.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-khu-bien-hien-tai-dang-kinh-doanh--16098796.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🇻🇳👉 CHO THUÊ NHÀ 3 TẦNG : LÔ GÓC 2 MẶT TIỀN - NGUYỄN THỊ MINH KHAI</t>
+          <t>CHO THUÊ KHÁCH SẠN 5 TẦNG ĐƯỜNG NGUYỄN TẤT THÀNH, 16p, giá 45tr/tháng</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 3 TẦNG LÔ GÓC 2 MẶT TIỀN: ĐƯỜNG NGUYỄN THỊ MINH KHAI - HẢI CHÂU *** Diện tích đất 64m2 *** tầng 1 trống, trên có 4 phòng , 4wc, có tầng thượng *** vị trí đắt địa, thuận lợi kinh doanh buôn bán, dễ nhận ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ KHÁCH SẠN 5 TẦNG ĐƯỜNG NGUYỄN TẤT THÀNH, P. XUÂN HÀ, Q. THANH KHÊ, TP. ĐÀ NẴNG (h-7638) 1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 125 m² (ngang: 5 m) - 5 tầng, 16 phòng ngủ,... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Diện tích: 200 m
+          <t>Diện tích: 125 m
 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Giá: 25 triệu / tháng</t>
+          <t>Giá: 45 triệu / tháng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Thị Minh Khai, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Nguyễn Tất Thành, Phường Xuân Hà, Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/1/thumbnails/016204794-2529-cho-thue-nha-mat-tien-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-lo-goc-2-mat-tien-nguyen-thi-minh-khai-16204794.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-khach-san-5-tang-duong-nguyen-tat-thanh-16p-gia-45tr-thang-16098818.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🇻🇳 CHO THUÊ NHÀ: BÙI XƯƠNG TRẠCH - 2PN -</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG NGUYỄN ĐÌNH THI, P. HÒA XUÂN, Q. CẨM LỆ, TP. ĐÀ NẴNG (h-969</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>𝐂𝐇𝐎 𝐓𝐇𝐔Ê 𝐍𝐇À 𝟐 𝐓Ầ𝐍𝐆 𝐌Ặ𝐓 𝐓𝐈Ề𝐍 : 𝐁Ù𝐈 𝐗ƯƠ𝐍𝐆 𝐓𝐑Ạ𝐂𝐇 - 𝐊𝐇𝐔Ê 𝐓𝐑𝐔𝐍𝐆, 𝐂Ẩ𝐌 𝐋Ệ ***𝐃𝐢ệ𝐧 𝐭í𝐜𝐡: 𝟏𝟎𝟎𝐦𝟐 ***𝐍𝐡à 𝟐 𝐭ầ𝐧𝐠 𝐤𝐢ê𝐧 𝐜ố, 𝐦ớ𝐢 đẹ𝐩 ***𝐆ồ𝐦 𝐩𝐡ò𝐧𝐠 𝐤𝐡á𝐜𝐡, 𝟐... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG NGUYỄN ĐÌNH THI, P. HÒA XUÂN, Q. CẨM LỆ, TP. ĐÀ NẴNG (h-9698) 1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 260 m² (ngang: 15 m) - 3 tầng, 4 phòng ngủ, 5 w... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 260 m
 2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Giá: 12 triệu / tháng</t>
+          <t>Giá: 45 triệu / tháng</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Đường Bùi Xương Trạch, Phường Khuê Trung, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Đình Thi, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/2/thumbnails/016209723-4204-cho-thue-nha-mat-tien-quan-cam-le.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/21/thumbnails/016121117-2046-cho-thue-biet-thu-nha-lien-ke-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-bui-xuong-trach-2pn--16209723.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-3-tang-duong-nguyen-dinh-thi-p-hoa-xuan-q-cam-le-tp-da-nang-h-969-16121117.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🇻🇳 CHO THUÊ KHO XƯỞNG 1440M2 - ĐƯỜNG TRƯỜNG CHINH</t>
+          <t>CHO THUÊ DÃY TRỌ 8 TẦNG ĐƯỜNG LÊ DUẨN, P. THẠCH THANG, GIÁ 60TR/THÁNG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cho thuê kho xưởng mặt tiền đường Trường Chinh - An Khê - thanh khê - Đà Nẵng *** Diện tích: 1.440m2 (mặt tiền ngang 24m x sâu 60m) *** Có hệ thống điện 3 pha. Có sẵn hệ cẩu. *** Phù hợp với sản xuất cơ khí, đá... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ DÃY TRỌ 8 TẦNG ĐƯỜNG LÊ DUẨN, P. THẠCH THANG, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-10214) 1. Giá thuê: 60 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 120 m² (ngang: 6 m) - 8 tầng, 23 phòng ngủ, 24 wc ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Diện tích: 1.440 m
+          <t>Diện tích: 120 m
 2</t>
         </is>
       </c>
@@ -3230,72 +3230,72 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Đường Trường Chinh, Phường An Khê, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Lê Duẩn, Phường Thạch Thang, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/4/thumbnails/016231182-0408-cho-thue-kho-xuong-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-kho-xuong-1440m2-duong-truong-chinh-16231182.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-day-tro-8-tang-duong-le-duan-p-thach-thang-gia-60tr-thang-16216126.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🇻🇳❤️ CHO THUÊ NHÀ 3 TẦNG: ĐƯỜNG PHAN ANH - 4PN - 4WC</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG NGUYỄN TẤT THÀNH, 1237m2, CÓ HỒ BƠI, VIEW BIỂN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 3 TẦNG CỰC ĐẸP FULL NỘI THẤT MẶT TIỀN ĐƯỜNG - PHAN ANH- KHUÊ TRUNG - CẨM LỆ *** Diện tích: 85m2 - đường trước nhà 7m5 *** Nhà 3 tầng kiên cố, mới đẹp, sang trọng đảm bảo xem là thích *** gồm tầng 1 trố... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG NGUYỄN TẤT THÀNH, P. THANH KHÊ TÂY, Q. THANH KHÊ, TP. ĐÀ NẴNG (h-11059) 1. Giá thuê: 100 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 1237 m² (ngang: 50 m) - 3 tầng, 7 phò... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 1.237 m
 2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Giá: 15 triệu / tháng</t>
+          <t>Giá: 100 triệu / tháng</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Đường Phan Anh, Phường Khuê Trung, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Tất Thành, Phường Thanh Khê Tây, Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/4/thumbnails/016231238-1345-cho-thue-nha-mat-tien-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-duong-phan-anh-4pn-4wc-16231238.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-3-tang-duong-nguyen-tat-thanh-1237m2-co-ho-boi-view-bien-16295130.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🇻🇳💎 CHO TÒA NHÀ LÔ GÓC 2 MẶT TIỀN: LÊ VĂN HIẾN - SIÊU RỘNG</t>
+          <t>CHO THUÊ BIỆT THỰ ĐƯỜNG NGUYỄN SƠN - HÓA SƠN 1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CHO THUÊ TÒA NHÀ 3.5 TẦNG LÔ GÓC 2 MẶT TIỀN ĐƯỜNG: LÊ VĂN HIẾN - KHUÊ MỸ - NGŨ HÀNH SƠN - ĐÀ NẴNG - Diện tích đất: 300m2 (15m x 20m). - Công năng: 12 phòng và 12wc *** Tầng 1 gồm có sân, khu vực để xe, phòng rộng ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ BIỆT THỰ ĐƯỜNG NGUYỄN SƠN - HÓA SƠN 1, P. HÒA CƯỜNG NAM, Q. HẢI CHÂU, TP. ĐÀ NẴNG (h-10189) 1. Giá thuê: 55 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 150.6 m² (ngang: 8 m) - 3 tầng, 5 phòng... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Diện tích: 600 m
+          <t>Diện tích: 150 m
 2</t>
         </is>
       </c>
@@ -3306,371 +3306,371 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Đường Lê Văn Hiến, Phường Khuê Mỹ, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Sơn, Phường Hòa Cường Nam, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/26/thumbnails/016156152-5350-cho-thue-nha-mat-tien-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-toa-nha-lo-goc-2-mat-tien-le-van-hien-sieu-rong-16156152.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-duong-nguyen-son-hoa-son-1-16257862.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🇻🇳💎 CHO THUÊ NHÀ 3 TẦNG: PHAN ĐĂNG LƯU - sát lê thanh nghị</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG BÙI THIỆN NGỘ, P. HÒA XUÂN, Q. CẨM LỆ, TP. ĐÀ NẴNG (h-11054</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 3 TẦNG MẶT TIỀN: PHAN ĐĂNG LƯU - HÒA CƯỜNG BẮC - HẢI CHÂU *** Diện tích 100m2 *** tầng 1 trống suốt, trên có 4 phòng ngủ, 3wc *** đường 15m lề rộng 5m *** vị trí sầm uất kinh doanh đắc địa *** cho thu... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ BIỆT THỰ 3 TẦNG ĐƯỜNG BÙI THIỆN NGỘ, P. HÒA XUÂN, Q. CẨM LỆ, TP. ĐÀ NẴNG (h-11054) 1. Giá thuê: 45 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 200 m² (ngang: 10 m) - 3 tầng, 4 phòng ngủ, 5 wc... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 200 m
 2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Giá: 25 triệu / tháng</t>
+          <t>Giá: 45 triệu / tháng</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Đường Phan Đăng Lưu, Phường Hòa Cường Bắc, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Bùi Thiện Ngộ, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/26/thumbnails/016156302-0640-cho-thue-nha-mat-tien-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-phan-dang-luu-sat-le-thanh-nghi-16156302.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-biet-thu-3-tang-duong-bui-thien-ngo-p-hoa-xuan-q-cam-le-tp-da-nang-h-11054-16338990.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>@$ CHO THUÊ NHÀ 3 TẦNG MỚI KEN: NGỌC HỒI - 3PN - 3WC</t>
+          <t>Chính chủ cho thuê Biệt thự 150m2, kiệt 8m 2 ô tô tránh nhau, đầu đỗ ô tô trước nhà</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>𝘊𝘏𝘖 𝘛𝘏𝘜Ê 𝘕𝘏À 3 𝘛Ầ𝘕𝘎 𝘔Ớ𝘐: ĐƯỜ𝘕𝘎 𝘕𝘎Ọ𝘊 𝘏Ồ𝘐 - 𝘏𝘰à 𝘔𝘪𝘯𝘩 - 𝘓𝘪ê𝘯 𝘊𝘩𝘪ể𝘶 *** 𝘋𝘪ệ𝘯 𝘵í𝘤𝘩 : 75𝘮2 𝘹 3 𝘵ầ𝘯𝘨 (𝘯𝘨𝘢𝘯𝘨 5𝘮) *** 𝘨ồ𝘮 𝘱𝘩ò𝘯𝘨 𝘬𝘩á𝘤𝘩 𝘳ộ𝘯𝘨 , 3 𝘱𝘩ò𝘯𝘨 𝘯𝘨ủ , ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Nhà mẹ Tôi chính chủ có nhu cầu cho thuê nhà Nguyên căn tại Đường Núi Thành, P. Hoà Thuận Đông, Q. Hải Châu, TP Đà Nẵng. Công năng: - Kiệt 8m, có lề, 2 ô tô tránh nhau, đầu đỗ ô tô trước nhà - Nhà mặt tiền 5m, nở ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 148 m
 2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Giá: 13 triệu / tháng</t>
+          <t>Giá: 20 triệu / tháng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Đường Ngọc Hồi, Phường Hòa Minh, Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Đường Núi Thành, Phường Hòa Cường Nam, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/25/thumbnails/016149370-3038-cho-thue-nha-mat-tien-quan-lien-chieu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016442621-4157-cho-thue-biet-thu-nha-lien-ke-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-3-tang-moi-ken-ngoc-hoi-3pn-3wc-16149370.html</t>
+          <t>https://alonhadat.com.vn/chinh-chu-cho-thue-biet-thu-150m2-kiet-8m-2-o-to-tranh-nhau-dau-do-o-to-truoc-nha-16442621.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>@@ CHO THUÊ NHÀ 4 TẦNG ĐƯỜNG: PHAN CHÂU TRINH - THÔNG SUỐT</t>
+          <t>🏡🏡CHO THUÊ NHÀ 2 TẦNG LÊ QUẢNG CHÍ GẦN CẦU NGUYỄN TRI PHƯƠNG,HÒA XUÂN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cho thuê nguyên căn 4 tầng mặt tiền: Phan Châu Trinh gần Nguyễn Văn Linh - phường Phước Ninh - Hải châu *** Diện tích: 77m2 x 4 tầng dtsd 300m2 *** gồm phòng khách - Có 4pn. 3wc *** Mặt bằng thông suốt decor sẵn, s... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>🌻🌻CHO THUÊ NHÀ 2 TẦNG : - HÒA XUÂN- CẨM LỆ - ĐOẠN GẦN CẦU NGUYỄN TRI PHƯƠNG🍀🍀🍀🌾🌾🌾 *** Diện Tích đất : 100m2 x 2 tầng *** đường trước nhà 10m5 *** công năng gồm 1 phòng khách, 3 phòng ngủ, 2wc, khu giặt phơi ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 100 m
 2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Giá: 30 triệu / tháng</t>
+          <t>Giá: 11 triệu / tháng</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Đường Phan Châu Trinh, Phường Phước Ninh, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Lê Quảng Chí, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/25/thumbnails/016149416-3444-cho-thue-nha-mat-tien-da-nang-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/15/thumbnails/016308978-2144-cho-thue-nha-mat-tien-quan-cam-le-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-4-tang-duong-phan-chau-trinh-thong-suot-16149416.html</t>
+          <t>https://alonhadat.com.vn/-cho-thue-nha-2-tang-gan-cau-nguyen-tri-phuong-hoa-xuan-16308978.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🇻🇳 CHO THUÊ NHÀ MẶT TIỀN: NGUYỄN PHƯỚC LAN - NGANG 10M</t>
+          <t>CHO THUÊ QUÁN CAFE 300M2- LÔ GÓC 2 MẶT TIỀN ĐƯỜNG: BÙI TRANG CHƯỚC - HÒA XUÂN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>𝘊𝘏𝘖 𝘛𝘏𝘜Ê 𝘕𝘩à 𝘮ặ𝘵 𝘵𝘪ề𝘯: 𝘕𝘎𝘜𝘠Ễ𝘕 𝘗𝘏ƯỚ𝘊 𝘓𝘈𝘕 - 𝘏Ò𝘈 𝘟𝘜Â𝘕 - 𝘊Ẩ𝘔 𝘓Ệ *** 𝘋𝘪ệ𝘯 𝘵í𝘤𝘩 𝘴ử 𝘥ụ𝘯𝘨: 270𝘮2 𝘯𝘨𝘢𝘯𝘨 10𝘮. *** 𝘛𝘶𝘺ế𝘯 đườ𝘯𝘨 𝘳ộ𝘯𝘨 33𝘮 , **𝘛𝘩í𝘤𝘩 𝘩ợ𝘱 𝘭à𝘮 𝘷... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ QUÁN CAFE 300M2- LÔ GÓC 2 MẶT TIỀN ĐƯỜNG: BÙI TRANG CHƯỚC - HÒA XUÂN - CẨM LỆ *** Diện tích 300m2 *** Nhà cấp 4 kiên cố. TRống suốt, 1wc *** đường 10m5 *** cho thuê hợp đồng lâu dài. Có sẵn đồ vào kinh doa... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Diện tích: 250 m
+          <t>Diện tích: 300 m
 2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Giá: 30 triệu / tháng</t>
+          <t>Giá: 16 triệu / tháng</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Phước Lan, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Bùi Trang Chước, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/27/thumbnails/016168032-4251-cho-thue-nha-mat-tien-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/17/thumbnails/016324204-2307-cho-thue-shop-kiot-quan-da-nang-gia-re.jpg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-mat-tien-nguyen-phuoc-lan-ngang-10m-16168032.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-quan-cafe-300m2-lo-goc-2-mat-tien-duong-bui-trang-chuoc-hoa-xuan-16324204.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🇻🇳💎 CHO THUÊ NHÀ 2 TẦNG: ĐƯỜNG HUỲNH VĂN GẤM - ĐẢO VIP</t>
+          <t>CHO THUÊ SIÊU PHẨM NHÀ 3 TẦNG MẶT TIỀN NGUYỄN THỊ BẢY, THANH KHÊ, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cho thuê Nhà 2 tầng mặt tiền đường Huỳnh Văn Gấm, Hoà xuân, Cẩm Lệ 💎 Diện tích đất: 125m2 x 2 tầng 💎 Tầng 1 trống phù hợp kinh doanh 💎 Tầng 2 gồm 2 phòng ngủ, 2 wc, đầy đủ nội thất 💎 Vị trí thoáng mát, thíc... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ SIÊU PHẨM NHÀ 3 TẦNG MẶT TIỀN NGUYỄN THỊ BẢY, THANH KHÊ, ĐÀ NẴNG Diện tích: 80m2. Nhà 3 tầng mới siêu đẹp. Có giếng trời sáng, thông thoáng Nhà full nội thất cao cấp vào ở ngay Tầng 1: Phòng khách, phòng bếp,... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 80 m
 2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Giá: 15 triệu / tháng</t>
+          <t>Giá: 25 triệu / tháng</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Đường Huỳnh Văn Gấm, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Thị Bảy, Phường Thanh Khê Tây, Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/1/thumbnails/016418748-2730-cho-thue-nha-mat-tien-quan-cam-le-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/4/8/thumbnails/016251924-1956-cho-thue-nha-mat-tien-quan-thanh-khe-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-2-tang-duong-huynh-van-gam-dao-vip-16418748.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-sieu-pham-nha-3-tang-mat-tien-nguyen-thi-bay-thanh-khe-da-nang-16251924.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cho thuê toà căn hộ 6 tầng Lý Nhật Quang - Sơn Trà</t>
+          <t>ĐỐNG ĐA 220M*5 TẦNG VIP - NGANG 8M SIÊU ĐẸP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ 6 TẦNG ĐƯỜNG LÝ NHẬT QUANG, P. NẠI HIÊN ĐÔNG, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-2286) 1. Giá thuê: 200 Triệu đồng/Tháng 2. Thông tin bất động sản - Diện tích: 315 m² (ngang: 15 m) - 6 tầng, 26 phòng ngủ, 26... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>- Cho Thuê Nguyên Căn Nhà 5 Tầng Mặt Tiền Đường Đống Đa Với Vị Trí Rất Đẹp &amp; Chiến Lượt. . Diện tích đất : 220M2 . Bề ngang : 8M . Kết cấu nhà : 1 trệt và 4 lầu - Giá thuê : 60 triệu / tháng . Nhà Rất Đẹp &amp; Trốn... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Diện tích: 315 m
+          <t>Diện tích: 220 m
 2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Giá: 200 triệu / tháng</t>
+          <t>Giá: 60 triệu / tháng</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Đường Lý Nhật Quang., Phường Nại Hiên Đông, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Đống Đa, Phường Thuận Phước, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/25/thumbnails/016151243-5629-cho-thue-nha-hang-khach-san-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/10/29/thumbnails/015358836-0938-cho-thue-nha-mat-tien-quan-hai-chau.jpg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-toa-can-ho-6-tang-ly-nhat-quang-son-tra-16151243.html</t>
+          <t>https://alonhadat.com.vn/dong-da-220m-5-tang-vip-ngang-8m-sieu-dep-15358836.html</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CHO THUÊ TOÀ NHÀ 3 TẦNG ĐƯỜNG NGUYỄN VĂN THOẠI</t>
+          <t>CHO THUÊ NHÀ 4 TẦNG ĐƯỜNG LÊ DUẨN - NGANG 5M4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ TOÀ NHÀ 3 TẦNG ĐƯỜNG NGUYỄN VĂN THOẠI, P. MỸ AN, Q. NGŨ HÀNH SƠN, TP. ĐÀ NẴNG (h-11072) 1. Giá thuê: 130 Triệu - Diện tích: 198 m² (ngang: 9 m) - 3 tầng, Phù hợp mở nhà hàng, Spa, showrooom nhà máy,.... ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thu.ê nhà 4 tầng mặt tiền LÊ DUẨN - ( ngang 5m4 ) ✅Vị trí nằm ngay trung tâm ✅Diện tích : 106m2 x 4 tầng - dtsd 424m2 ✅3 tầng trống suốt , có cửa kính , đã decor sẳn ✅Phù hợp kinh doanh shop thời trang , show... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Diện tích: 200 m
+          <t>Diện tích: 106 m
 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Giá: 130 triệu / tháng</t>
+          <t>Giá: 75 triệu / tháng</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Văn Thoại, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Lê Duẩn, Phường Bình Hiên, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/22/thumbnails/016360691-5138-ban-nha-mat-tien-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-toa-nha-3-tang-duong-nguyen-van-thoai-16360691.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-4-tang-duong-le-duan-ngang-5m4-16460146.html</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 2 TẦNG ĐƯỜNG VÕ NGUYÊN GIÁP, P. MỸ AN, Q. NGŨ HÀNH SƠN</t>
+          <t>ĐỖ BÁ - TRẦN BẠCH ĐẰNG 2MT CHO THUÊ (1000M) SIÊU PHẨM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ NHÀ 2 TẦNG ĐƯỜNG VÕ NGUYÊN GIÁP, P. MỸ AN, Q. NGŨ HÀNH SƠN, TP. ĐÀ NẴNG (h-11073) 1. Giá thuê: 35 Triệu - Diện tích: 110 m² (ngang: 8 m) - 2 tầng, 4 phòng ngủ, 4 wc Phù hợp ở, khu vực du lịch biển Mỹ An, ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>- Siêu phẩm 2mt ĐẤT TRỐNG ĐƯỜNG ĐỖ BÁ- TRẦN BẠCH ĐẰNG- NGAY BIỂN CHO THUÊ - DIỆN TÍCH :1000M - ngang 45m - Vị trí : 2mt LỚN SÁT BIỂN - ngay TRUNG TÂM DU LỊCH - PHỐ ĐI BỘ- NHÀ HÀNG- KHÁCH SẠN LỚN- SÁT MƯỜNG THANH ... ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Diện tích: 110 m
+          <t>Diện tích: 1.000 m
 2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Giá: 35 triệu / tháng</t>
+          <t>Giá: 270 triệu / tháng</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Đường Võ Nguyên Giáp, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Đỗ Bá, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/21/thumbnails/016354421-5843-cho-thue-nha-mat-tien-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-2-tang-duong-vo-nguyen-giap-p-my-an-q-ngu-hanh-son-16354421.html</t>
+          <t>https://alonhadat.com.vn/do-ba-tran-bach-dang-2mt-cho-thue-1000m-sieu-pham-14811130.html</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHO THUÊ LÔ ĐẤT 1100 M2 CÓ SẴN NHÀ 2 TẦNG ĐƯỜNG HOÀNG SA - DƯƠNG THẠC</t>
+          <t>NGUYỄN VĂN LINH 451M -19,5M NGANG CHO THUÊ NHANH</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>🔥 CHO THUÊ LÔ ĐẤT 1100 M2 CÓ SẴN NHÀ 2 TẦNG ĐƯỜNG HOÀNG SA - DƯƠNG THẠC, P. THỌ QUANG, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-10992) 1. Giá thuê: 80 Triệu - Diện tích: 1100 m² (ngang: 32 m) - 2 tầng, 2 phòng ngủ, 1 wc đất 1100m... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Duy nhất MẶT TIỀN - LỚN DUY NHẤT - VÍP NHẤT ĐƯỜNG CHO THUÊ NHANH DIỆN TÍCH :451M NGANG 19,5M GIÁ NGUYÊN Căn:250tr( có cắt lẻ cho thuê) KẸP KIỆT ĐẸP - SÁT BÊN CHUỖI THƯƠNG HIỆU LỚN - NỔI TIẾNG - SIXDO,THE COFFEE HOUSE... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Diện tích: 1.100 m
+          <t>Diện tích: 451 m
 2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Giá: 80 triệu / tháng</t>
+          <t>Giá: 250 triệu / tháng</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Đường Dương Thạc, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Linh, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/6/thumbnails/016442379-2153-cho-thue-dat-tho-cu-dat-o-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-lo-dat-1100-m2-co-san-nha-2-tang-duong-hoang-sa-duong-thac-16442379.html</t>
+          <t>https://alonhadat.com.vn/nguyen-van-linh-451m-19-5m-ngang-cho-thue-nhanh-14795782.html</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cho thuê khách sạn 7 tầng đường Lê Văn Lương - phù hợp Spa, Khách sạn, Căn hộ</t>
+          <t>Siêu PHẨM MT LÊ DUẨN 8,5M-10M SIÊU HOT ĐỈNH ĐẸP CHO THUÊ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>🔥CHO THUÊ KHÁCH SẠN 7 TẦNG ĐƯỜNG LÊ VĂN LƯƠNG, P. THỌ QUANG, Q. SƠN TRÀ, TP. ĐÀ NẴNG (h-4005) 1. Giá thuê: 90 Triệu - Diện tích: 300 m² (ngang: 15 m) - 7 tầng, 34 phòng ngủ, 35 wc Chủ cho cải tạo theo loại hình kinh... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ MẶT BẰNG VIP LÊ DUẨN -phương án thưe : + TẦNG 1 KHÔNG : 300M2 NGANG 10M GIÁ 200 TRIỆU + TẦNG 1,2 : NGANG 8Mx25M x 2 GIÁ 200 TRIỆU - THANH TOÁN 6 THÁNG CỌC 2 VỊ TRÍ SIÊU ĐẸP,NHẬN DẠNG THƯƠNG HIỆU TỐT ,TRỐN... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3681,50 +3681,50 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Giá: 90 triệu / tháng</t>
+          <t>Giá: 200 triệu / tháng</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Đường Lê Văn Lương, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Lê Duẩn, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/3/19/thumbnails/016103988-1625-cho-thue-nha-hang-khach-san-quan-son-tra-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-7-tang-duong-le-van-luong-phu-hop-spa-khach-san-can-ho-16103988.html</t>
+          <t>https://alonhadat.com.vn/sieu-pham-mt-le-duan-8-5m-10m-sieu-hot-dinh-dep-cho-thue-14823748.html</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SIÊU PHẨM 9m DUỜNG NGUYỄN VĂN THOẠI 120M*3 TẦNG</t>
+          <t>CHO THUÊ SIÊU PHẨM 3 TẦNG NGUYỄN VĂN THOẠI- NGANG 9M</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN THOẠI - 9M NGANG VIP -120M*3 TẦNG RẺ ĐẸP 🌈🌈. CHO THUÊ NHÀ 3 TẦNG MT NGUYỄN VĂN THOẠI ✔Diện tích : 120m ngang 9m ✔3 tầng trống suốt ✔Cho kinh doanh tất cả Giá 💵 thuê: 75 triệu/ tháng . Ll CHUYÊN ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ NHÀ 3 TẦNG MT NGUYỄN VĂN THOẠI KINH DOANH SẦM UẤT Diện tích : 120m ngang 9m 3 tầng trống suốt Cho kinh doanh tất cả showroom, nhà hàng,,, Giá thuê: 75 triệu/ tháng vui lòng liên hệ để được tư vấn, xin cảm ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Diện tích: 360 m
+          <t>Diện tích: 120 m
 2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Giá: 120 triệu / tháng</t>
+          <t>Giá: 75 triệu / tháng</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Văn Thoại, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Thoại, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3734,301 +3734,301 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/sieu-pham-2-tang-duong-nguyen-van-thoai-700m-sd-vip-re-dep-trung-tam-dong-duc-15384309.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-sieu-pham-3-tang-nguyen-van-thoai-ngang-9m-16460037.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Văn phòng setup đầy đủ, view biển, tòa nhà chuyên nghiệp, khu vực trung tâm, giá hợp lý</t>
+          <t>LÊ DUẨN NGANG 8*25M*2 TẦNG RẤT ĐẸP CHO thuê</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cho thuê văn phòng Nguyễn Tất Thành, trung tâm Quận Thanh Khê, Vị trí ngay mặt tiền biển, view đẹp lồng lộng Tòa nhà chuyên phục vụ têp khách Công nghệ thông tin, kiến trúc...trong và ngoài nước Cơ sở vật chất và dị... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Siêu phẩm mt đường LÊ DUẨN TP ĐÀ NẴNG - Tuyến phố thời trang siêu đẹp - VỊ TRÍ SIÊU ĐẮC ĐỊA CHO THUÊ DIỆN TÍCH :8M*25M*2 TẦNG GIÁ THUÊ :140TR HỢP ĐỒNG DÀI HẠN TRỐNG SUỐT CÁC TẦNG LL CHUYÊN CHO THUÊ - CÒN NỮA Đăn... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Diện tích: 240 m
+          <t>Diện tích: 400 m
 2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Giá: 65 triệu / tháng</t>
+          <t>Giá: 140 triệu / tháng</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Tất Thành, Phường Xuân Hà, Quận Thanh Khê, Đà Nẵng</t>
+          <t>Đường Lê Duẩn, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/5/7/thumbnails/016453725-1930-cho-thue-van-phong-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/van-phong-setup-day-du-view-bien-toa-nha-chuyen-nghiep-khu-vuc-trung-tam-gia-hop-ly-16453725.html</t>
+          <t>https://alonhadat.com.vn/le-duan-ngang-8-25m-2-tang-rat-dep-cho-thue-14494135.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2_9 CHO THUÊ 12M NGANG VIP - có THANG MÁY SIÊU PHẨM ĐẸP</t>
+          <t>TRẦN QUỐC TOẢN -300M (10m NGANG) ĐẤT TRỐNG CHO THUÊ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2_9 NHÀ MT 5 tầng CÓ THANG MÁY,KÈM PCCC ĐẦY ĐỦ ĐẸP ✅Cho thu.ê toà nhà buiding 6 tầng mặt tiền 2/9 - ( ngang 12m ) ✅Vị trí nằm gần cầu rồng ✅Diện tích : 262m2 x 6 tầng - dtsd :1300m2 ✅6 tầng trống suốt , có 2 thang ... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>🆘 Siêu phẩm khu chợ Hàn cho thuê - ngang 10m vị trí cực đẹp ngay sát chợ gần nhà thờ con gà - Diện tích: 150m2 x 2 tầng - bề ngang 10m Giá: 120tr Ll ------------------------------------- CHUYÊN CHO THUÊ - CÒN N... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Diện tích: 1.290 m
+          <t>Diện tích: 300 m
 2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Giá: 199 triệu / tháng</t>
+          <t>Giá: 120 triệu / tháng</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Đường 2/9, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
+          <t>Đường Trần Quốc Toản, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/24/thumbnails/014806998-3801-cho-thue-dat-tho-cu-dat-o-da-nang-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/2-9-cho-thue-12m-ngang-vip-co-thang-may-sieu-pham-dep-16453711.html</t>
+          <t>https://alonhadat.com.vn/tran-quoc-toan-700m-24m-ngang-dat-trong-cho-thue-14806998.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 3 Tầng Đường Hoà An 19 - Quận Cẩm Lệ</t>
+          <t>Mt NGUYỄN VĂN LINH SIÊU VIP 110TR-120TR CHO THUÊ - NGANG 2 LÔ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 3 mê full nội Thất Đường Hoà An 19 - Trung Tâm TP Dt 100m2 x3 tầng Đường 7m5 👉Nội Thất gồm : 3 giường , 4 điều Hoà, 1 bếp từ xịn, bộ bàn ăn, bộ sofa , máy giặt . Tất cả đều nội thất xịn 👉Công năng c... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>NGUYỄN VĂN LINH (9m-10m ) rẻ từ 100tr cho thuê NHANB Nguyễn văn LINH - HÀNG VIP RẺ CHO THUÊ ❌ NGUYỄN VĂN LINH ❌ 🫴CĂN 1: NGUYỄN VĂN LINH lô góc kep kiệt - SÁT CẦU RỒNG CHO THUÊ - ĐẸP - DIỆN TÍCH LỚN - NHẬN DIỆN T... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 600 m
 2</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Giá: 13 triệu / tháng</t>
+          <t>Giá: 110 triệu / tháng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Đường Hòa An 19, Phường Hòa An, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Linh, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/23/thumbnails/016370801-3358-cho-thue-nha-mat-tien-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-3-tang-duong-hoa-an-19-quan-cam-le-16370801.html</t>
+          <t>https://alonhadat.com.vn/mt-nguyen-van-linh-sieu-vip-110tr-120tr-cho-thue-ngang-2-lo-16190401.html</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cho thuê mặt bằng view biển - phù hợp với mọi loại hình kinh doanh.</t>
+          <t>TOẢ NHÀ 2_9 1300M ĐẦY ĐỦ PCCC ,THANG MÁY VIP CHO THUÊ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cần cho thuê mặt bằng kinh doanh view mặt tiền biển. Vị trí: view mặt tiền biển Sơn Trà Nằm trên trục đường biển du lịch: chùa Linh Ứng, núi Sơn Trà, mặt biển. Diện tích đất: hơn 1000m với 2 mặt tiền view biển, vie... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>✅Cho thu.ê toà nhà buiding 6 tầng mặt tiền 2/9 - ( ngang 12m ) ✅Vị trí nằm gần cầu rồng ✅Diện tích : 262m2 x 6 tầng - dtsd :1300m2 ✅6 tầng trống suốt , có 2 thang máy cao cấp , thang bộ kín , PCCC tiêu chuẩn văn phò... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Diện tích: 1.000 m
+          <t>Diện tích: 1.300 m
 2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Giá: 135 triệu / tháng</t>
+          <t>Giá: 200 triệu / tháng</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Đường Hoàng Sa, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường 2/9, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2025/3/31/thumbnails/016190375-2123-toa-nha-2-9-1300m-day-du-pccc-thang-may-vip-cho-thue.jpg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-mat-bang-view-bien-phu-hop-voi-moi-loai-hinh-kinh-doanh--15735965.html</t>
+          <t>https://alonhadat.com.vn/toa-nha-2-9-1300m-day-du-pccc-thang-may-vip-cho-thue-16190375.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cho thuê khách sạn đường khu An thượng giá cực tốt</t>
+          <t>TRẦN HƯNG ĐẠO NGAY DU THUYỀN ,TY 10M NGANG CHO THUÊ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cần cho thuê khách sạn khu An thượng . Số phòng : 47 Số tầng : 1 hầm , 8 lầu. Diện tích đất : 300m2. Năm xây dựng : 2017. Doanh thu trước dịch : 600 triệu 1 tháng . Giá thuê : 150 triệu 1 tháng . Cách biển chỉ và... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>✅Cho thu.ê nhà C4 mặt tiền TRẦN HƯNG ĐẠO - ( ngang 10m ) ✅Vị trí ngay gần cầu rồng ✅Diện tích : 250m2 ✅Nhà tiền chế trống suốt , cho cải tạo thoải mái ✅Phù hợp kinh doanh nhà hàng , ăn uống , thương hiệu ✅Dự kiế... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 250 m
 2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Giá: 150 triệu / tháng</t>
+          <t>Giá: 70 triệu / tháng</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Đường An Thượng 30, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Trần Hưng Đạo, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2023/2/18/thumbnails/012410195-5306-cho-thue-nha-hang-khach-san-quan-ngu-hanh-son-gia-re.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-duong-khu-an-thuong-gia-cuc-tot-12410195.html</t>
+          <t>https://alonhadat.com.vn/tran-hung-dao-ngay-du-thuyen-ty-10m-ngang-cho-thue-16155356.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cho thuê khách sạn 4 sao mặt biển Võ Nguyên Giáp</t>
+          <t>MBKD DIỆN TÍCH LỚN CHO THUÊ - VỊ TRÍ VIP TẠI ĐÀ NẴNG 300M-2000M CLICK XEM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cần cho thuê khách sạn 4 sao .mặt biển võ nguyên Giáp. Số phòng : 100 phòng. Số tầng : 15 tầng nổi và 1 hầm Tiện ích : có nhà hàng .hội nghị .hồ bơi . Sky bar . Nằm ngay khu phố tây và mặt biển . Vị trí đẹp nhất biển... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>❌Mbkd sẵn DIỆN TÍCH LỚN ❌ - 1300M /1,5 TẦNG GIÁ 125TR -2mt 330m*5 tầng giá 350tr - 18,5m -450m giá 220tr - 15,5m - 581M GIÁ 200TR - 18m - 800M GIÁ 165TR - 30m- 2000M GIÁ 150TR Ll Ảnh minh hoạ CHUYÊN CHO TH... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 1.300 m
 2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Giá: 900 triệu / tháng</t>
+          <t>Giá: 125 triệu / tháng</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Đường Võ Nguyên Giáp, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường 2/9, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2022/4/4/thumbnails/010290961-5140-cho-thue-nha-hang-khach-san-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-khach-san-4-sao-mat-bien-vo-nguyen-giap-10290961.html</t>
+          <t>https://alonhadat.com.vn/mbkd-dien-tich-lon-cho-thue-vi-tri-vip-tai-da-nang-300m-2000m-click-xem-16182423.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cho thuê đất 2 mặt tiền Nguyễn Hiến Lê + Mạc Đăng Dung</t>
+          <t>Siêu phẩm VÕ VĂN KIỆT -340M*2 TẦNG (20M NGANG) VÍP</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cho thuê góc Nguyễn Hiến Lê - Mạc Đăng Dung. Trung Tâm Hòa Xuân - Đà Nẵng - lô góc ngã tư nhìn Qua Sân Bóng Đá. Ngay Diên Hồng giao 29/3 - Diện tích 151m2 kèm khung nhà tiền chế có sẵn. Phù hợp kinh doanh mọi loại hìn... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Siêu 🏢🏢🏢 Cho thuê đất trống góc MT biển siêu đẹp - TT DU LỊCH ✅ Khu vực đông khách du lịch , ✅ DT : 340m2. NGANG 10M DTSD :780M ✅ Hợp đồng 5 năm ✅ Phù hợp kinh doanh nhà hàng , siêu thị ,SROOM... ✅ Giá : 1... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Diện tích: 160 m
+          <t>Diện tích: 340 m
 2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Giá: 8 triệu / tháng</t>
+          <t>Giá: 100 triệu / tháng</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Đường Nguyễn Hiến Lê, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Võ Văn Kiệt, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/6/thumbnails/016241859-0933-cho-thue-dat-tho-cu-dat-o-da-nang.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-dat-2-mat-tien-nguyen-hien-le-mac-dang-dung-16241859.html</t>
+          <t>https://alonhadat.com.vn/sieu-pham-vo-van-kiet-340m-2-tang-20m-ngang-vip-15201010.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TRẦN HƯNG ĐẠO SIÊU VIP CHO THUÊ NHANH-15m ngang</t>
+          <t>TÔN ĐỨC THẮNG SIÊU PHẨM 1050M CHO THUÊ NHANH</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CHO THUÊ MẶT BẰNG NHÀ MT TRẦN HƯNG ĐẠO - VỊ TRÍ ĐÔNG ĐÚC SẦM UẤT ĐỐI DIÊN TOÀ MORNACHY DT ĐẤT :300m2 , NGANG :15M ĐỂ LẠI TOÀN BỘ ĐỒ DÙNG NHÀ HÀNG VÀ COFFEE GIÁ THUÊ :100 triệu / tháng Ll CHUYÊN CHO THUÊ - CÒN N... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê garaxe ô tô mặt tiền Tôn Đức Thắng - (ngang 15m nở hậu 25m). Vị trí nằm gần bến xe. Diện tích: 1050m². Kho xưởng như hình, hợp đồng cho thuê lâu dài. Phù hợp kinh doanh kho logistics, gara xe oto, Giá: 85 t... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Diện tích: 300 m
+          <t>Diện tích: 1.050 m
 2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Giá: 100 triệu / tháng</t>
+          <t>Giá: 85 triệu / tháng</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Đường Trần Hưng Đạo, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Tôn Đức Thắng, Phường Hòa Hiệp Bắc, Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4038,111 +4038,111 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/tran-hung-dao-sieu-vip-cho-thue-nhanh-15m-ngang-16453495.html</t>
+          <t>https://alonhadat.com.vn/ton-duc-thang-sieu-pham-1050m-cho-thue-nhanh-15641946.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>💥CHO THUÊ NHÀ ĐẸP - MỚI - 3 TẦNG FULL NỘI THẤT ĐƯỜNG THANH LƯƠNG 11, HOÀ XUÂN, ĐÀ NẴNG.</t>
+          <t>cho thuê nhà 3 tầng đường NGUYỄN VĂN THOẠI- ngang 9m</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>💥CHO THUÊ NHÀ ĐẸP - MỚI - 3 TẦNG FULL NỘI THẤT ĐƯỜNG THANH LƯƠNG 11, HOÀ XUÂN, ĐÀ NẴNG. ❤️ VỊ TRÍ: - Mặt tiền đường 7,5m, khu vip Hoà Xuân, Đà Nẵng. Gần đường ĐI lại thuận tiện, khu vực cao ráo không ngập lụt xóm... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>CHO THUÊ NHÀ 3 TẦNG MT NGUYỄN VĂN THOẠI KINH DOANH SẦM UẤT Diện tích : 120m ngang 9m 3 tầng trống suốt Cho kinh doanh tất cả showroom, nhà hàng,,, Giá thuê: 75 triệu/ tháng vui lòng liên hệ để được tư vấn, xin cảm ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Diện tích: 100 m
+          <t>Diện tích: 120 m
 2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Giá: 23 triệu / tháng</t>
+          <t>Giá: 75 triệu / tháng</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Đường Thanh Lương 11, Phường Hòa Xuân, Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Thoại, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/23/thumbnails/016365564-1519-cho-thue-nha-mat-tien-quan-cam-le.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/-cho-thue-nha-dep-moi-3-tang-full-noi-that-duong-thanh-luong-11-hoa-xuan-da-nang--16365564.html</t>
+          <t>https://alonhadat.com.vn/cho-thue-nha-3-tang-duong-nguyen-van-thoai-ngang-9m-16460023.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 2 TẦNG-MAI THÚC LÂN-THÍCH HỢP KINH DOANH MỌI LOẠI HÌNH-GIÁ 2x Triệu</t>
+          <t>SIÊU PHẨM 2MT LỚN HỒ NGHINH CHO THUÊ -1000M ĐẤT (3 TẦNG)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ 2 TẦNG-MAI THÚC LÂN-THÍCH HỢP KINH DOANH MỌI LOẠI HÌNH-GIÁ 2x Triệu 🍀 MÔ TẢ: -DT 140 m2, ngang 6 m, đường 15m. -Nhà 2 tầng, có thể sửa chữa cải tạo phù hợp với nhu cầu khách thuê. 🍀 TIỆN ÍCH: -Khu vự... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>- Cho thuê nhà 3 tầng góc 2mt đường lớn ngay HỒ NGHINH - Nơi tập trung nhiều khách du lịch qua lại hằng ngày và là tuyến đường trọng điểm của quận Sơn Trà. - Phù hợp kinh doanh nhà hàng, showroom, thẫm mỹ viện, nha kh... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Diện tích: 140 m
+          <t>Diện tích: 2.300 m
 2</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Giá: 25 triệu / tháng</t>
+          <t>Giá: 250 triệu / tháng</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Đường Mai Thúc Lân, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Hồ Nghinh, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2025/4/27/thumbnails/016397757-5711-cho-thue-nha-mat-tien-da-nang-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/8/14/thumbnails/014944064-5712-cho-thue-nha-mat-tien-da-nang.jpg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-nha-2-tang-mai-thuc-lan-thich-hop-kinh-doanh-moi-loai-hinh-gia-2x-trieu-16397757.html</t>
+          <t>https://alonhadat.com.vn/sieu-pham-2mt-lon-ho-nghinh-cho-thue-1000m-dat-3-tang--14944064.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cho thuê toà mặt bằng khu downtown mới nổi phố đêm An Thượng</t>
+          <t>TO - ĐẸP - TUYẾN ĐƯỜNG SROOM NGUYỄN HỮU THỌ - 1300M THANG MÁY -TRỐNG SUỐT CHO THUÊ</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CHO THUÊ VỊ TRÍ KINH DOANH CỰC ĐẸP TRẦN BẠCH ĐẰNG - KHU DOWNTOWN MỚI - Thiết kế: toà nhà 4 tầng, có thang máy, mới 100% - Nằm ngay khu phố Tây của chợ đêm An Thương - Rất hợp khai thác: nhà hàng, bar pub, Spa cho... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>NGUYỄN HỮU THỌ -có thang máy - PCCC 1300M SD NGANG 15M CHO THUÊ ☺️ Siêu phẩm to đẹp cho thuê ngay TTtp Diện tích lớn :15m*25m*3 tầng rưỡi Giá thuê :134tr999 Có thang máy,thang tời Mặt tiền đường lớn Nguyễn Hữu T... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Diện tích: 315 m
+          <t>Diện tích: 1.300 m
 2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Giá: 152 triệu / tháng</t>
+          <t>Giá: 134,999 triệu / tháng</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Đường Trần Bạch Đằng, Phường Mỹ An, Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Đường Nguyễn Hữu Thọ, Phường Hòa Cường, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4152,24 +4152,24 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-toa-mat-bang-khu-downtown-moi-noi-pho-dem-an-thuong-16398380.html</t>
+          <t>https://alonhadat.com.vn/to-dep-tuyen-duong-sroom-nguyen-huu-tho-1300m-thang-may-trong-suot-cho-thue-14657236.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHO THUÊ 822M2 ĐẤT ĐƯỜNG PHẠM VĂN ĐỒNG, AN HẢI BẮC, SƠN TRÀ</t>
+          <t>MẶT BẰNG CHÍNH ĐỐNG ĐA 3 TẦNG -920M SD XHO THUÊ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CHO THUÊ 822M2 ĐẤT ĐƯỜNG PHẠM VĂN ĐỒNG, AN HẢI BẮC, SƠN TRÀ - Diện tích: 822m2 - Hướng Đông Nam - Trục đường 2 làn, kết nối cầu Sông Hàn - Đất 2 mặt tiền trước và sau - Cách bãi biển Phạm Văn Đồng 500m - Gía cho t... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thu.ê nhà sân vườn 3 tầng mặt tiền #HẢI #CHÂU - ( ngang 13m ) ✅Vị trí nằm ngay trung tâm. ✅Diện tích : 500m2 x 3 tầng - DTSD 930m2 ✅3 tầng trống suốt , có sân rộng 150m2 , cho cải tạo thoải mái. ✅Phù hợp kinh doa... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Diện tích: 822 m
+          <t>Diện tích: 920 m
 2</t>
         </is>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Đường Phạm Văn Đồng, Phường An Hải Bắc, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Đống Đa, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4190,83 +4190,83 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-822m2-dat-duong-pham-van-dong-an-hai-bac-son-tra-13501443.html</t>
+          <t>https://alonhadat.com.vn/mat-bang-chinh-dong-da-3-tang-920m-sd-xho-thue-15847603.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cho Thuê đất trống 580m (20x29) Mặt tiền Hoàng Sa gần BT Mân Thái 50tr tháng Lâu Dài</t>
+          <t>SIÊU HÓT CHO THUÊ KHÁCH SẠN - 4* gồm 96p trong TTtp ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cho Thuê đất trống 580m (20x29) Mặt tiền Hoàng Sa gần BÃi tắm Mân Thái 50tr tháng Lâu Dài Cho kinh doanh tất cả ngành nghề Hợp đồng lâu dài Vị trí nằm ngay gần dãy khách sạn cao tầng View trực tiếp biển Giá quá rẻ s... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Cho thuê khách sạn 4* TTtp ĐÀ NẴNG DIỆN TÍCH :550M - LÔ GÓC 2MT SIÊU PHẨM GỒM :96 PHÒNG - HỒ BƠI VÀ CÁC DỊCH VỤ CHUẨN KS 4* GIÁ THUÊ :550TR ( TL) HỢP ĐỒNG DÀI HẠN Ll CHUYÊN CHO THUÊ - CÒN NỮA Đăng k hết ( q... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Diện tích: 580 m
+          <t>Diện tích: 550 m
 2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Giá: 50 triệu / tháng</t>
+          <t>Giá: 550 triệu / tháng</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Đường Hoàng Sa, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Nguyễn Văn Linh, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/2024/10/2/thumbnails/015185549-2137-cho-thue-nha-hang-khach-san-quan-hai-chau-chinh-chu.jpg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-dat-trong-580m-20x29-mat-tien-hoang-sa-gan-bt-man-thai-40tr-thang-lau-dai-13009491.html</t>
+          <t>https://alonhadat.com.vn/sieu-hot-cho-thue-khach-san-4-gom-96p-trong-tttp-da-nang-15185549.html</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cho Thuê đất mặt tiền Lê Văn Lương 350-380m giá từ 15-20tr/lô</t>
+          <t>NHÀ MT LÊ DUẨN NGANHG 10M*25M*2 TẦNG GIÁ 170TR VIP</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cần cho thuê đất mặt tiền Lê Văn Lương 2MT 680m giá 40tr/ tháng hợp đồng lâu dài cho kinh doanh tất cả 350m giá 15tr-17tr / tháng 380m giá 20tr 330m giá 20tr Tuỳ vị trí, có tất cả các block Vui lòng liên hệ để biết... &lt;&lt; xem chi tiết &gt;&gt;</t>
+          <t>Siêu phẩm cho thuê ĐƯỜNG LÊ DUẨN VỊ TRÍ ĐẸP TẠI PHỐ THỜI TRANG LỚN DIỆN TÍCH CHO THUÊ :10M*25M*2 TẦNG GIÁ THUÊ :170TR HD KÍ DÀI HẠN VỊ TRÍ QUÁ ĐẸP KINH DOANH SÁT CẠNH CÁC CHUỖI LỚN LL CHUYÊN CHO THUÊ - CÒ... &lt;&lt; xem chi tiết &gt;&gt;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Diện tích: 650 m
+          <t>Diện tích: 500 m
 2</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Giá: 40 triệu / tháng</t>
+          <t>Giá: 170 triệu / tháng</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Đường Lê Văn Lương, Phường Thọ Quang, Quận Sơn Trà, Đà Nẵng</t>
+          <t>Đường Lê Duẩn, Phường Hải Châu, Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/files/properties/2023/11/24/thumbnails/013727490-4357-ban-dat-tho-cu-dat-o-quan-son-tra-chinh-chu.jpg</t>
+          <t>https://alonhadat.com.vn/files/properties/default.jpg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://alonhadat.com.vn/cho-thue-dat-mat-tien-le-van-luong-350-380m-gia-tu-15-20tr-lo-13727490.html</t>
+          <t>https://alonhadat.com.vn/nha-mt-le-duan-nganhg-10m-25m-2-tang-gia-170tr-vip-15558783.html</t>
         </is>
       </c>
     </row>
